--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B90A7-2C62-4961-8AB5-D99CE8131B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C570B42F-D463-4D19-914A-D1F60D7D7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -509,6 +509,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,10 +534,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +754,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -862,22 +862,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3333333333333339</c:v>
+                  <c:v>12.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0000000000000009</c:v>
+                  <c:v>9.5000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6666666666666679</c:v>
+                  <c:v>6.3333333333333357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3333333333333346</c:v>
+                  <c:v>3.1666666666666692</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -970,22 +970,22 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,7 +1621,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1837,22 +1837,22 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!G$3:G$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H$3:H$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(B10:B11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:H3" si="0">SUM(C10:C11)</f>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!G$3:G$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H$3:H$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B11" s="1">
         <f>COUNTIF('Sprint 1 backlog'!G3:G1048576,'Sprint 1 stats - DO NOT CHANGE'!$A11)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H1048576,'Sprint 1 stats - DO NOT CHANGE'!$A11)</f>
@@ -4981,9 +4981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5000,44 +5000,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="20" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -5085,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -5100,7 +5100,7 @@
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="7" t="str" cm="1">
@@ -5112,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -5139,7 +5139,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -10749,7 +10749,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10779,9 +10779,9 @@
       <c r="A2" s="19">
         <v>45262</v>
       </c>
-      <c r="B2" s="28">
-        <f>COUNT('Sprint 1 backlog'!C3:C10)</f>
-        <v>8</v>
+      <c r="B2" s="21">
+        <f>COUNT('Sprint 1 backlog'!C3:C300)</f>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <f>COUNT('Sprint 1 backlog'!C3:C100)</f>
@@ -10789,20 +10789,20 @@
       </c>
       <c r="D2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!G3:G23,"Done")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>45263</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="21">
         <f t="shared" ref="B3:B8" si="0">B2-($B$2/6)</f>
-        <v>6.666666666666667</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C8" si="1">C2-D3</f>
-        <v>19</v>
+        <f>C2-D2</f>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H23,"Done")</f>
@@ -10813,13 +10813,13 @@
       <c r="A4" s="19">
         <v>45264</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="21">
         <f t="shared" si="0"/>
-        <v>5.3333333333333339</v>
+        <v>12.666666666666668</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" ref="C4:C8" si="1">C3-D3</f>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I23,"Done")</f>
@@ -10830,13 +10830,13 @@
       <c r="A5" s="19">
         <v>45265</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="21">
         <f t="shared" si="0"/>
-        <v>4.0000000000000009</v>
+        <v>9.5000000000000018</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
@@ -10847,13 +10847,13 @@
       <c r="A6" s="19">
         <v>45266</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="21">
         <f t="shared" si="0"/>
-        <v>2.6666666666666679</v>
+        <v>6.3333333333333357</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -10864,13 +10864,13 @@
       <c r="A7" s="19">
         <v>45267</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="21">
         <f t="shared" si="0"/>
-        <v>1.3333333333333346</v>
+        <v>3.1666666666666692</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -10881,13 +10881,13 @@
       <c r="A8" s="19">
         <v>45268</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -10939,44 +10939,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="20" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
@@ -10998,7 +10998,7 @@
       <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -11039,7 +11039,7 @@
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="20" t="s">
         <v>58</v>
       </c>
       <c r="E4" s="7" t="str" cm="1">
@@ -15714,7 +15714,7 @@
         <v/>
       </c>
       <c r="C259" s="6" t="str">
-        <f t="shared" ref="C259:C322" si="4">IF(ISBLANK(A259),"",IF(A259&lt;&gt;A258,A259+0.1,C258+0.1))</f>
+        <f t="shared" ref="C259:C300" si="4">IF(ISBLANK(A259),"",IF(A259&lt;&gt;A258,A259+0.1,C258+0.1))</f>
         <v/>
       </c>
       <c r="E259" s="7" t="str" cm="1">
@@ -16560,7 +16560,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16590,7 +16590,7 @@
       <c r="A2" s="19">
         <v>45262</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="21">
         <f>COUNT('Sprint 1 backlog'!C3:C10)</f>
         <v>8</v>
       </c>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="D2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!G3:G23,"Done")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>45263</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="21">
         <f t="shared" ref="B3:B8" si="0">B2-($B$2/6)</f>
         <v>6.666666666666667</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C8" si="1">C2-D3</f>
-        <v>19</v>
+        <f>C2-D2</f>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H23,"Done")</f>
@@ -16624,13 +16624,13 @@
       <c r="A4" s="19">
         <v>45264</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="21">
         <f t="shared" si="0"/>
         <v>5.3333333333333339</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" ref="C4:C8" si="1">C3-D3</f>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I23,"Done")</f>
@@ -16641,13 +16641,13 @@
       <c r="A5" s="19">
         <v>45265</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="21">
         <f t="shared" si="0"/>
         <v>4.0000000000000009</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
@@ -16658,13 +16658,13 @@
       <c r="A6" s="19">
         <v>45266</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="21">
         <f t="shared" si="0"/>
         <v>2.6666666666666679</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -16675,13 +16675,13 @@
       <c r="A7" s="19">
         <v>45267</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="21">
         <f t="shared" si="0"/>
         <v>1.3333333333333346</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -16692,13 +16692,13 @@
       <c r="A8" s="19">
         <v>45268</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -17262,14 +17262,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17456,21 +17454,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
-    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17495,9 +17492,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
+    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C570B42F-D463-4D19-914A-D1F60D7D7737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B4228-0162-4C51-85CC-CCCA6BB89563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4983,7 +4983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60B4228-0162-4C51-85CC-CCCA6BB89563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A00E68-3999-4359-9308-59C2F250173A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
   <si>
     <t>Product backlog ID</t>
   </si>
@@ -757,7 +757,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -973,19 +973,19 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,7 +1624,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1840,19 +1840,19 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3727,7 +3727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3737,7 +3737,7 @@
     <col min="3" max="3" width="13.875" style="6" customWidth="1"/>
     <col min="4" max="4" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="6" customWidth="1"/>
     <col min="7" max="7" width="82.875" style="4" customWidth="1"/>
     <col min="8" max="8" width="60.875" style="6" customWidth="1"/>
     <col min="9" max="16384" width="10.875" style="6"/>
@@ -3786,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>44</v>
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>36</v>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:H3" si="0">SUM(C10:C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="C4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H$3:H$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I$3:I$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="C10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
@@ -4983,7 +4983,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5114,6 +5114,9 @@
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -5168,6 +5171,9 @@
       <c r="G6" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -5195,6 +5201,9 @@
       <c r="G7" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -5221,6 +5230,9 @@
       </c>
       <c r="G8" s="6" t="s">
         <v>26</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -10749,7 +10761,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10806,7 +10818,7 @@
       </c>
       <c r="D3" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H23,"Done")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10819,7 +10831,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C8" si="1">C3-D3</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I23,"Done")</f>
@@ -10836,7 +10848,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
@@ -10853,7 +10865,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -10870,7 +10882,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -10887,7 +10899,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -16617,7 +16629,7 @@
       </c>
       <c r="D3" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H23,"Done")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -16630,7 +16642,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C8" si="1">C3-D3</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I23,"Done")</f>
@@ -16647,7 +16659,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
@@ -16664,7 +16676,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -16681,7 +16693,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -16698,7 +16710,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -17262,12 +17274,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17454,20 +17468,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
+    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17492,12 +17507,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
-    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A00E68-3999-4359-9308-59C2F250173A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D155AE0-1CC2-4C06-895D-2F40B1CF12F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
   <si>
     <t>Product backlog ID</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>Completed Tasks</t>
-  </si>
-  <si>
-    <t>Jake</t>
   </si>
   <si>
     <t>Log in to the Admin Portal</t>
@@ -285,6 +282,15 @@
   </si>
   <si>
     <t>View available articles on the Blog on desktop</t>
+  </si>
+  <si>
+    <t>Logout of the Admin Portal</t>
+  </si>
+  <si>
+    <t>A logged in user can log out of the system</t>
+  </si>
+  <si>
+    <t>View an account's profile information on the Admin Portal</t>
   </si>
 </sst>
 </file>
@@ -757,7 +763,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -973,19 +979,19 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,7 +1630,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1840,19 +1846,19 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3723,11 +3729,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3774,10 +3780,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="18" t="str">
+        <f>IF(B2&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>8</v>
@@ -3789,18 +3796,20 @@
         <v>25</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
+        <f>IF(B3&lt;&gt;"",A2+1,"")</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="18" t="s">
         <v>31</v>
+      </c>
+      <c r="C3" s="18" t="str">
+        <f>IF(B3&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -3812,18 +3821,20 @@
         <v>25</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
+        <f>IF(B4&lt;&gt;"",A3+1,"")</f>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>IF(B4&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>8</v>
@@ -3835,18 +3846,20 @@
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
+        <f>IF(B5&lt;&gt;"",A4+1,"")</f>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>31</v>
+        <v>69</v>
+      </c>
+      <c r="C5" s="18" t="str">
+        <f>IF(B5&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>8</v>
@@ -3858,18 +3871,20 @@
         <v>26</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
+        <f>IF(B6&lt;&gt;"",A5+1,"")</f>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="C6" s="18" t="str">
+        <f>IF(B6&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
@@ -3881,18 +3896,20 @@
         <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
+        <f>IF(B7&lt;&gt;"",A6+1,"")</f>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f>IF(B7&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>12</v>
@@ -3904,18 +3921,20 @@
         <v>26</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
+        <f>IF(B8&lt;&gt;"",A7+1,"")</f>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="C8" s="18" t="str">
+        <f>IF(B8&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>13</v>
@@ -3927,18 +3946,20 @@
         <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
+        <f>IF(B9&lt;&gt;"",A8+1,"")</f>
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="18" t="str">
+        <f>IF(B9&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
@@ -3950,18 +3971,20 @@
         <v>26</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
+        <f>IF(B10&lt;&gt;"",A9+1,"")</f>
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>31</v>
+        <v>46</v>
+      </c>
+      <c r="C10" s="18" t="str">
+        <f>IF(B10&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>10</v>
@@ -3973,18 +3996,20 @@
         <v>26</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
+        <f>IF(B11&lt;&gt;"",A10+1,"")</f>
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="C11" s="18" t="str">
+        <f>IF(B11&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>13</v>
@@ -3996,720 +4021,3361 @@
         <v>26</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
+      <c r="A12" s="6">
+        <f>IF(B12&lt;&gt;"",A11+1,"")</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="18" t="str">
+        <f>IF(B12&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="6">
+        <f>IF(B13&lt;&gt;"",A12+1,"")</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="18" t="str">
+        <f t="shared" ref="C13:C76" si="0">IF(B13&lt;&gt;"","Jake","")</f>
+        <v>Jake</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="str">
+        <f>IF(B14&lt;&gt;"",A13+1,"")</f>
+        <v/>
+      </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="18"/>
+      <c r="C14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="str">
+        <f t="shared" ref="A15:A78" si="1">IF(B15&lt;&gt;"",A14+1,"")</f>
+        <v/>
+      </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="18"/>
+      <c r="C16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="18"/>
+      <c r="C19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="18"/>
+      <c r="C20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="18"/>
+      <c r="C21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="18"/>
+      <c r="C22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B23" s="5"/>
-      <c r="C23" s="18"/>
+      <c r="C23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B24" s="5"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B25" s="5"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="18"/>
+      <c r="C26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B27" s="5"/>
-      <c r="C27" s="18"/>
+      <c r="C27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="18"/>
+      <c r="C28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="18"/>
+      <c r="C29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="18"/>
+      <c r="C30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B31" s="5"/>
-      <c r="C31" s="18"/>
+      <c r="C31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="18"/>
+      <c r="C32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="18"/>
+      <c r="C33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="18"/>
+      <c r="C34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B35" s="5"/>
-      <c r="C35" s="18"/>
+      <c r="C35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="18"/>
+      <c r="C36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="18"/>
+      <c r="C37" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="18"/>
+      <c r="C38" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B39" s="5"/>
-      <c r="C39" s="18"/>
+      <c r="C39" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="18"/>
+      <c r="C40" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="18"/>
+      <c r="C41" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B42" s="5"/>
-      <c r="C42" s="18"/>
+      <c r="C42" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="18"/>
+      <c r="C43" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="18"/>
+      <c r="C44" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B45" s="5"/>
-      <c r="C45" s="18"/>
+      <c r="C45" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="18"/>
+      <c r="C46" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="18"/>
+      <c r="C47" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B48" s="5"/>
-      <c r="C48" s="18"/>
+      <c r="C48" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="18"/>
+      <c r="C49" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B50" s="5"/>
-      <c r="C50" s="18"/>
+      <c r="C50" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B51" s="5"/>
-      <c r="C51" s="18"/>
+      <c r="C51" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B52" s="5"/>
-      <c r="C52" s="18"/>
+      <c r="C52" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B53" s="5"/>
-      <c r="C53" s="18"/>
+      <c r="C53" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="18"/>
+      <c r="C54" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="18"/>
+      <c r="C55" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B56" s="5"/>
-      <c r="C56" s="18"/>
+      <c r="C56" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B57" s="5"/>
-      <c r="C57" s="18"/>
+      <c r="C57" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="18"/>
+      <c r="C58" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B59" s="5"/>
-      <c r="C59" s="18"/>
+      <c r="C59" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B60" s="5"/>
-      <c r="C60" s="18"/>
+      <c r="C60" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B61" s="5"/>
-      <c r="C61" s="18"/>
+      <c r="C61" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B62" s="5"/>
-      <c r="C62" s="18"/>
+      <c r="C62" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B63" s="5"/>
-      <c r="C63" s="18"/>
+      <c r="C63" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B64" s="5"/>
-      <c r="C64" s="18"/>
+      <c r="C64" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B65" s="5"/>
-      <c r="C65" s="18"/>
+      <c r="C65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B66" s="5"/>
-      <c r="C66" s="18"/>
+      <c r="C66" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B67" s="5"/>
-      <c r="C67" s="18"/>
+      <c r="C67" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B68" s="5"/>
-      <c r="C68" s="18"/>
+      <c r="C68" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B69" s="5"/>
-      <c r="C69" s="18"/>
+      <c r="C69" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B70" s="5"/>
-      <c r="C70" s="18"/>
+      <c r="C70" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B71" s="5"/>
-      <c r="C71" s="18"/>
+      <c r="C71" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B72" s="5"/>
-      <c r="C72" s="18"/>
+      <c r="C72" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B73" s="5"/>
-      <c r="C73" s="18"/>
+      <c r="C73" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B74" s="5"/>
-      <c r="C74" s="18"/>
+      <c r="C74" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B75" s="5"/>
-      <c r="C75" s="18"/>
+      <c r="C75" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B76" s="5"/>
-      <c r="C76" s="18"/>
+      <c r="C76" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B77" s="5"/>
-      <c r="C77" s="18"/>
+      <c r="C77" s="18" t="str">
+        <f t="shared" ref="C77:C140" si="2">IF(B77&lt;&gt;"","Jake","")</f>
+        <v/>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B78" s="5"/>
-      <c r="C78" s="18"/>
+      <c r="C78" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="str">
+        <f t="shared" ref="A79:A142" si="3">IF(B79&lt;&gt;"",A78+1,"")</f>
+        <v/>
+      </c>
       <c r="B79" s="5"/>
-      <c r="C79" s="18"/>
+      <c r="C79" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B80" s="5"/>
-      <c r="C80" s="18"/>
+      <c r="C80" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B81" s="5"/>
-      <c r="C81" s="18"/>
+      <c r="C81" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B82" s="5"/>
-      <c r="C82" s="18"/>
+      <c r="C82" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B83" s="5"/>
-      <c r="C83" s="18"/>
+      <c r="C83" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B84" s="5"/>
-      <c r="C84" s="18"/>
+      <c r="C84" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="5"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B85" s="5"/>
-      <c r="C85" s="18"/>
+      <c r="C85" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="5"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B86" s="5"/>
-      <c r="C86" s="18"/>
+      <c r="C86" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="5"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B87" s="5"/>
-      <c r="C87" s="18"/>
+      <c r="C87" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="5"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B88" s="5"/>
-      <c r="C88" s="18"/>
+      <c r="C88" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="5"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B89" s="5"/>
-      <c r="C89" s="18"/>
+      <c r="C89" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="5"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B90" s="5"/>
-      <c r="C90" s="18"/>
+      <c r="C90" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B91" s="5"/>
-      <c r="C91" s="18"/>
+      <c r="C91" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B92" s="5"/>
-      <c r="C92" s="18"/>
+      <c r="C92" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B93" s="5"/>
-      <c r="C93" s="18"/>
+      <c r="C93" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B94" s="5"/>
-      <c r="C94" s="18"/>
+      <c r="C94" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B95" s="5"/>
-      <c r="C95" s="18"/>
+      <c r="C95" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="5"/>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B96" s="5"/>
-      <c r="C96" s="18"/>
+      <c r="C96" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="5"/>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B97" s="5"/>
-      <c r="C97" s="18"/>
+      <c r="C97" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B98" s="5"/>
-      <c r="C98" s="18"/>
+      <c r="C98" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="5"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B99" s="5"/>
-      <c r="C99" s="18"/>
+      <c r="C99" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="5"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="B100" s="5"/>
-      <c r="C100" s="18"/>
+      <c r="C100" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
       <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C101" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C102" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C103" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C104" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C105" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C106" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C107" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C108" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C109" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C110" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C111" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C112" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C113" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C114" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C115" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C116" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C117" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C118" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C119" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C120" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C121" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C122" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C123" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C124" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C125" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C126" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C127" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C128" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C129" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C130" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C131" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C132" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C133" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C134" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C135" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C136" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C137" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C138" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C139" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C140" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C141" s="18" t="str">
+        <f t="shared" ref="C141:C204" si="4">IF(B141&lt;&gt;"","Jake","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="C142" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="str">
+        <f t="shared" ref="A143:A206" si="5">IF(B143&lt;&gt;"",A142+1,"")</f>
+        <v/>
+      </c>
+      <c r="C143" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C144" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C145" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C146" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C147" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C148" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C149" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C150" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C151" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C152" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C153" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C154" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C155" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C156" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C157" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C158" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C159" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C160" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C161" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C162" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C163" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C164" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C165" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C166" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C167" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C168" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C169" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C170" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C171" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C172" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C173" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C174" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C175" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C176" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C177" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C178" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C179" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C180" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C181" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C182" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C183" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C184" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C185" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C186" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C187" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C188" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C189" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C190" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C191" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C192" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C193" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C194" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C195" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C196" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C197" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C198" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C199" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C200" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C201" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C202" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C203" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C204" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C205" s="18" t="str">
+        <f t="shared" ref="C205:C268" si="6">IF(B205&lt;&gt;"","Jake","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="C206" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="str">
+        <f t="shared" ref="A207:A270" si="7">IF(B207&lt;&gt;"",A206+1,"")</f>
+        <v/>
+      </c>
+      <c r="C207" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C208" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C209" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C210" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C211" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C212" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C213" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C214" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C215" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C216" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C217" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C218" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C219" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C220" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C221" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C222" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C223" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C224" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C225" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C226" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C227" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C228" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C229" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C230" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C231" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C232" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C233" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C234" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C235" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C236" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C237" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C238" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C239" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C240" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C241" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C242" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C243" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C244" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C245" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C246" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C247" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C248" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C249" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C250" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C251" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C252" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C253" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C254" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C255" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C256" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C257" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C258" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C259" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C260" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C261" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C262" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C263" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C264" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C265" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C266" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C267" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C268" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C269" s="18" t="str">
+        <f t="shared" ref="C269:C300" si="8">IF(B269&lt;&gt;"","Jake","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="C270" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="str">
+        <f t="shared" ref="A271:A300" si="9">IF(B271&lt;&gt;"",A270+1,"")</f>
+        <v/>
+      </c>
+      <c r="C271" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C272" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C273" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C274" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C275" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C276" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C277" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C278" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C279" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C280" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C281" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C282" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C283" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C284" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C285" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C286" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C287" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C288" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C289" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C290" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C291" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C292" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C293" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C294" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C295" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C296" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C297" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C298" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C299" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="C300" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4815,7 +7481,7 @@
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:H3" si="0">SUM(C10:C11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
@@ -4849,7 +7515,7 @@
       </c>
       <c r="C4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H$3:H$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I$3:I$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
@@ -4915,7 +7581,7 @@
       </c>
       <c r="C10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
@@ -4981,9 +7647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5074,7 +7740,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="str" cm="1">
         <f t="array" ref="E3">IF(ISBLANK(A3),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A3),{0,0,1}))</f>
@@ -5101,7 +7767,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7" t="str" cm="1">
         <f t="array" ref="E4">IF(ISBLANK(A4),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A4),{0,0,1}))</f>
@@ -5131,7 +7797,7 @@
         <v>1.3000000000000003</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="str" cm="1">
         <f t="array" ref="E5">IF(ISBLANK(A5),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A5),{0,0,1}))</f>
@@ -5144,6 +7810,9 @@
       <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -5158,7 +7827,7 @@
         <v>2.1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7" t="str" cm="1">
         <f t="array" ref="E6">IF(ISBLANK(A6),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A6),{0,0,1}))</f>
@@ -5188,7 +7857,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="str" cm="1">
         <f t="array" ref="E7">IF(ISBLANK(A7),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A7),{0,0,1}))</f>
@@ -5218,7 +7887,7 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7" t="str" cm="1">
         <f t="array" ref="E8">IF(ISBLANK(A8),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A8),{0,0,1}))</f>
@@ -5232,7 +7901,7 @@
         <v>26</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -5248,7 +7917,7 @@
         <v>3.1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7" t="str" cm="1">
         <f t="array" ref="E9">IF(ISBLANK(A9),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A9),{0,0,1}))</f>
@@ -5275,7 +7944,7 @@
         <v>3.2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="str" cm="1">
         <f t="array" ref="E10">IF(ISBLANK(A10),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A10),{0,0,1}))</f>
@@ -5302,7 +7971,7 @@
         <v>3.3000000000000003</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="7" t="str" cm="1">
         <f t="array" ref="E11">IF(ISBLANK(A11),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A11),{0,0,1}))</f>
@@ -5329,7 +7998,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="7" t="str" cm="1">
         <f t="array" ref="E12">IF(ISBLANK(A12),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A12),{0,0,1}))</f>
@@ -5356,7 +8025,7 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="7" t="str" cm="1">
         <f t="array" ref="E13">IF(ISBLANK(A13),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A13),{0,0,1}))</f>
@@ -5383,7 +8052,7 @@
         <v>4.2999999999999989</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="7" t="str" cm="1">
         <f t="array" ref="E14">IF(ISBLANK(A14),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A14),{0,0,1}))</f>
@@ -5410,7 +8079,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="str" cm="1">
         <f t="array" ref="E15">IF(ISBLANK(A15),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A15),{0,0,1}))</f>
@@ -5437,7 +8106,7 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="7" t="str" cm="1">
         <f t="array" ref="E16">IF(ISBLANK(A16),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A16),{0,0,1}))</f>
@@ -5464,7 +8133,7 @@
         <v>6.1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="7" t="str" cm="1">
         <f t="array" ref="E17">IF(ISBLANK(A17),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A17),{0,0,1}))</f>
@@ -5491,7 +8160,7 @@
         <v>8.1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="7" t="str" cm="1">
         <f t="array" ref="E18">IF(ISBLANK(A18),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A18),{0,0,1}))</f>
@@ -5518,7 +8187,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="7" t="str" cm="1">
         <f t="array" ref="E19">IF(ISBLANK(A19),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A19),{0,0,1}))</f>
@@ -5545,7 +8214,7 @@
         <v>9.1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="7" t="str" cm="1">
         <f t="array" ref="E20">IF(ISBLANK(A20),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A20),{0,0,1}))</f>
@@ -5572,7 +8241,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="7" t="str" cm="1">
         <f t="array" ref="E21">IF(ISBLANK(A21),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A21),{0,0,1}))</f>
@@ -10818,7 +13487,7 @@
       </c>
       <c r="D3" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H23,"Done")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10831,7 +13500,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C8" si="1">C3-D3</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I23,"Done")</f>
@@ -10848,7 +13517,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
@@ -10865,7 +13534,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -10882,7 +13551,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -10899,7 +13568,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -11025,7 +13694,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="7" t="str" cm="1">
         <f t="array" ref="E3">IF(ISBLANK(A3),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A3),{0,0,1}))</f>
@@ -11052,7 +13721,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="7" t="str" cm="1">
         <f t="array" ref="E4">IF(ISBLANK(A4),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A4),{0,0,1}))</f>
@@ -11079,7 +13748,7 @@
         <v>1.3000000000000003</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="str" cm="1">
         <f t="array" ref="E5">IF(ISBLANK(A5),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A5),{0,0,1}))</f>
@@ -16629,7 +19298,7 @@
       </c>
       <c r="D3" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H23,"Done")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -16642,7 +19311,7 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C8" si="1">C3-D3</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I23,"Done")</f>
@@ -16659,7 +19328,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
@@ -16676,7 +19345,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -16693,7 +19362,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -16710,7 +19379,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -17274,14 +19943,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17468,21 +20135,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
-    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17507,9 +20173,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
+    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D155AE0-1CC2-4C06-895D-2F40B1CF12F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE73E07E-548C-4368-9DA0-152ACDCF0489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE73E07E-548C-4368-9DA0-152ACDCF0489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8AFE41-A79A-4EA3-8938-54EC5559EF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -544,10 +544,68 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC1C1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC1C1"/>
       <color rgb="FFFC6060"/>
     </mruColors>
   </colors>
@@ -3733,7 +3791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3783,7 +3841,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="18" t="str">
-        <f>IF(B2&lt;&gt;"","Jake","")</f>
+        <f t="shared" ref="C2:C12" si="0">IF(B2&lt;&gt;"","Jake","")</f>
         <v>Jake</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -3793,7 +3851,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>43</v>
@@ -3801,14 +3859,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <f>IF(B3&lt;&gt;"",A2+1,"")</f>
+        <f t="shared" ref="A3:A14" si="1">IF(B3&lt;&gt;"",A2+1,"")</f>
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="18" t="str">
-        <f>IF(B3&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -3818,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>35</v>
@@ -3826,14 +3884,14 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <f>IF(B4&lt;&gt;"",A3+1,"")</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="18" t="str">
-        <f>IF(B4&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -3851,14 +3909,14 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <f>IF(B5&lt;&gt;"",A4+1,"")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="18" t="str">
-        <f>IF(B5&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -3876,14 +3934,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <f>IF(B6&lt;&gt;"",A5+1,"")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="18" t="str">
-        <f>IF(B6&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -3901,14 +3959,14 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <f>IF(B7&lt;&gt;"",A6+1,"")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="18" t="str">
-        <f>IF(B7&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -3926,14 +3984,14 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <f>IF(B8&lt;&gt;"",A7+1,"")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="18" t="str">
-        <f>IF(B8&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -3951,14 +4009,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <f>IF(B9&lt;&gt;"",A8+1,"")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="18" t="str">
-        <f>IF(B9&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -3976,14 +4034,14 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <f>IF(B10&lt;&gt;"",A9+1,"")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="18" t="str">
-        <f>IF(B10&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -4001,14 +4059,14 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <f>IF(B11&lt;&gt;"",A10+1,"")</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="18" t="str">
-        <f>IF(B11&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -4026,14 +4084,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <f>IF(B12&lt;&gt;"",A11+1,"")</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="18" t="str">
-        <f>IF(B12&lt;&gt;"","Jake","")</f>
+        <f t="shared" si="0"/>
         <v>Jake</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -4051,14 +4109,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <f>IF(B13&lt;&gt;"",A12+1,"")</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="18" t="str">
-        <f t="shared" ref="C13:C76" si="0">IF(B13&lt;&gt;"","Jake","")</f>
+        <f t="shared" ref="C13:C76" si="2">IF(B13&lt;&gt;"","Jake","")</f>
         <v>Jake</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -4074,12 +4132,12 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="str">
-        <f>IF(B14&lt;&gt;"",A13+1,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D14" s="7"/>
@@ -4089,12 +4147,12 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="str">
-        <f t="shared" ref="A15:A78" si="1">IF(B15&lt;&gt;"",A14+1,"")</f>
+        <f t="shared" ref="A15:A78" si="3">IF(B15&lt;&gt;"",A14+1,"")</f>
         <v/>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D15" s="7"/>
@@ -4104,12 +4162,12 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D16" s="7"/>
@@ -4119,12 +4177,12 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D17" s="7"/>
@@ -4134,12 +4192,12 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D18" s="7"/>
@@ -4149,12 +4207,12 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D19" s="7"/>
@@ -4164,12 +4222,12 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D20" s="7"/>
@@ -4179,12 +4237,12 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D21" s="7"/>
@@ -4194,12 +4252,12 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D22" s="7"/>
@@ -4209,12 +4267,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D23" s="7"/>
@@ -4224,12 +4282,12 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D24" s="7"/>
@@ -4239,12 +4297,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D25" s="7"/>
@@ -4254,12 +4312,12 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D26" s="7"/>
@@ -4269,12 +4327,12 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D27" s="7"/>
@@ -4284,12 +4342,12 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D28" s="7"/>
@@ -4299,12 +4357,12 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D29" s="7"/>
@@ -4314,12 +4372,12 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D30" s="7"/>
@@ -4329,12 +4387,12 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D31" s="7"/>
@@ -4344,12 +4402,12 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D32" s="7"/>
@@ -4359,12 +4417,12 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D33" s="7"/>
@@ -4374,12 +4432,12 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D34" s="7"/>
@@ -4389,12 +4447,12 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D35" s="7"/>
@@ -4404,12 +4462,12 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D36" s="7"/>
@@ -4419,12 +4477,12 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D37" s="7"/>
@@ -4434,12 +4492,12 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D38" s="7"/>
@@ -4449,12 +4507,12 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D39" s="7"/>
@@ -4464,12 +4522,12 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D40" s="7"/>
@@ -4479,12 +4537,12 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D41" s="7"/>
@@ -4494,12 +4552,12 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D42" s="7"/>
@@ -4509,12 +4567,12 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D43" s="7"/>
@@ -4524,12 +4582,12 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D44" s="7"/>
@@ -4539,12 +4597,12 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D45" s="7"/>
@@ -4554,12 +4612,12 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D46" s="7"/>
@@ -4569,12 +4627,12 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D47" s="7"/>
@@ -4584,12 +4642,12 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D48" s="7"/>
@@ -4599,12 +4657,12 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D49" s="7"/>
@@ -4614,12 +4672,12 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D50" s="7"/>
@@ -4629,12 +4687,12 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D51" s="7"/>
@@ -4644,12 +4702,12 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D52" s="7"/>
@@ -4659,12 +4717,12 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D53" s="7"/>
@@ -4674,12 +4732,12 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D54" s="7"/>
@@ -4689,12 +4747,12 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D55" s="7"/>
@@ -4704,12 +4762,12 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D56" s="7"/>
@@ -4719,12 +4777,12 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D57" s="7"/>
@@ -4734,12 +4792,12 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D58" s="7"/>
@@ -4749,12 +4807,12 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D59" s="7"/>
@@ -4764,12 +4822,12 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D60" s="7"/>
@@ -4779,12 +4837,12 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D61" s="7"/>
@@ -4794,12 +4852,12 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D62" s="7"/>
@@ -4809,12 +4867,12 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D63" s="7"/>
@@ -4824,12 +4882,12 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D64" s="7"/>
@@ -4839,12 +4897,12 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D65" s="7"/>
@@ -4854,12 +4912,12 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D66" s="7"/>
@@ -4869,12 +4927,12 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D67" s="7"/>
@@ -4884,12 +4942,12 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D68" s="7"/>
@@ -4899,12 +4957,12 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D69" s="7"/>
@@ -4914,12 +4972,12 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D70" s="7"/>
@@ -4929,12 +4987,12 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D71" s="7"/>
@@ -4944,12 +5002,12 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D72" s="7"/>
@@ -4959,12 +5017,12 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D73" s="7"/>
@@ -4974,12 +5032,12 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D74" s="7"/>
@@ -4989,12 +5047,12 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D75" s="7"/>
@@ -5004,12 +5062,12 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D76" s="7"/>
@@ -5019,12 +5077,12 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="18" t="str">
-        <f t="shared" ref="C77:C140" si="2">IF(B77&lt;&gt;"","Jake","")</f>
+        <f t="shared" ref="C77:C140" si="4">IF(B77&lt;&gt;"","Jake","")</f>
         <v/>
       </c>
       <c r="D77" s="7"/>
@@ -5034,12 +5092,12 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D78" s="7"/>
@@ -5049,12 +5107,12 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="str">
-        <f t="shared" ref="A79:A142" si="3">IF(B79&lt;&gt;"",A78+1,"")</f>
+        <f t="shared" ref="A79:A142" si="5">IF(B79&lt;&gt;"",A78+1,"")</f>
         <v/>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D79" s="7"/>
@@ -5064,12 +5122,12 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D80" s="7"/>
@@ -5079,12 +5137,12 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D81" s="7"/>
@@ -5094,12 +5152,12 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D82" s="7"/>
@@ -5109,12 +5167,12 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D83" s="7"/>
@@ -5124,12 +5182,12 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D84" s="7"/>
@@ -5139,12 +5197,12 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D85" s="7"/>
@@ -5154,12 +5212,12 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D86" s="7"/>
@@ -5169,12 +5227,12 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D87" s="7"/>
@@ -5184,12 +5242,12 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D88" s="7"/>
@@ -5199,12 +5257,12 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D89" s="7"/>
@@ -5214,12 +5272,12 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D90" s="7"/>
@@ -5229,12 +5287,12 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D91" s="7"/>
@@ -5244,12 +5302,12 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D92" s="7"/>
@@ -5259,12 +5317,12 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D93" s="7"/>
@@ -5274,12 +5332,12 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D94" s="7"/>
@@ -5289,12 +5347,12 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D95" s="7"/>
@@ -5304,12 +5362,12 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D96" s="7"/>
@@ -5319,12 +5377,12 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D97" s="7"/>
@@ -5334,12 +5392,12 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D98" s="7"/>
@@ -5349,12 +5407,12 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D99" s="7"/>
@@ -5364,12 +5422,12 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D100" s="7"/>
@@ -5379,2005 +5437,2016 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C101" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C102" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C103" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C104" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C105" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C106" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C107" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C108" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C109" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C110" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C111" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C112" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C113" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C114" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C115" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C116" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C117" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C118" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C119" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C120" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C121" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C122" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C123" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C124" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C125" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C126" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C127" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C128" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C129" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C130" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C131" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C132" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C133" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C134" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C135" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C136" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C137" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C138" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C139" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C140" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C141" s="18" t="str">
-        <f t="shared" ref="C141:C204" si="4">IF(B141&lt;&gt;"","Jake","")</f>
+        <f t="shared" ref="C141:C204" si="6">IF(B141&lt;&gt;"","Jake","")</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="C142" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="str">
-        <f t="shared" ref="A143:A206" si="5">IF(B143&lt;&gt;"",A142+1,"")</f>
+        <f t="shared" ref="A143:A206" si="7">IF(B143&lt;&gt;"",A142+1,"")</f>
         <v/>
       </c>
       <c r="C143" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C144" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C145" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C146" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C147" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C148" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C149" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C150" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C151" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C152" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C153" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C154" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C155" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C156" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C157" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C158" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C159" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C160" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C161" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C162" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C163" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C164" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C165" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C166" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C167" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C168" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C169" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C170" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C171" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C172" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C173" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C174" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C175" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C176" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C177" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C178" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C179" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C180" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C181" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C182" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C183" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C184" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C185" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C186" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C187" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C188" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C189" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C190" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C191" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C192" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C193" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C194" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C195" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C196" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C197" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C198" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C199" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C200" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C201" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C202" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C203" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C204" s="18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C205" s="18" t="str">
-        <f t="shared" ref="C205:C268" si="6">IF(B205&lt;&gt;"","Jake","")</f>
+        <f t="shared" ref="C205:C268" si="8">IF(B205&lt;&gt;"","Jake","")</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="C206" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="str">
-        <f t="shared" ref="A207:A270" si="7">IF(B207&lt;&gt;"",A206+1,"")</f>
+        <f t="shared" ref="A207:A270" si="9">IF(B207&lt;&gt;"",A206+1,"")</f>
         <v/>
       </c>
       <c r="C207" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C208" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C209" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C210" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C211" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C212" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C213" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C214" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C215" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C216" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C217" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C218" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C219" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C220" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C221" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C222" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C223" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C224" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C225" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C226" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C227" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C228" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C229" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C230" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C231" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C232" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C233" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C234" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C235" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C236" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C237" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C238" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C239" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C240" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C241" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C242" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C243" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C244" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C245" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C246" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C247" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C248" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C249" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C250" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C251" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C252" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C253" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C254" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C255" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C256" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C257" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C258" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C259" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C260" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C261" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C262" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C263" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C264" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C265" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C266" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C267" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C268" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C269" s="18" t="str">
-        <f t="shared" ref="C269:C300" si="8">IF(B269&lt;&gt;"","Jake","")</f>
+        <f t="shared" ref="C269:C300" si="10">IF(B269&lt;&gt;"","Jake","")</f>
         <v/>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C270" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="str">
-        <f t="shared" ref="A271:A300" si="9">IF(B271&lt;&gt;"",A270+1,"")</f>
+        <f t="shared" ref="A271:A300" si="11">IF(B271&lt;&gt;"",A270+1,"")</f>
         <v/>
       </c>
       <c r="C271" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C272" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C273" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C274" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C275" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C276" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C277" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C278" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C279" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C280" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C281" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C282" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C283" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C284" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C285" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C286" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C287" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C288" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C289" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C290" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C291" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C292" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C293" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C294" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C295" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C296" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C297" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C298" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C299" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C300" s="18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F300">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Testing">
+      <formula>NOT(ISERROR(SEARCH("Testing",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7649,7 +7718,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13409,6 +13478,20 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <conditionalFormatting sqref="G3:M300">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Testing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"To do"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -13430,7 +13513,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19943,12 +20026,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20135,20 +20220,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
+    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20173,12 +20259,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
-    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8AFE41-A79A-4EA3-8938-54EC5559EF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7119A2-5C66-4210-A5E9-8527CE4C6091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
   <si>
     <t>Product backlog ID</t>
   </si>
@@ -292,6 +292,15 @@
   <si>
     <t>View an account's profile information on the Admin Portal</t>
   </si>
+  <si>
+    <t>Create a view to update the article list on the Admin Portal</t>
+  </si>
+  <si>
+    <t>Publish an Article</t>
+  </si>
+  <si>
+    <t>Secure the Admin Portal</t>
+  </si>
 </sst>
 </file>
 
@@ -353,7 +362,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -464,11 +473,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -540,11 +573,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -562,7 +622,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -576,28 +650,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -824,7 +877,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -926,22 +979,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.833333333333334</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.666666666666668</c:v>
+                  <c:v>13.333333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5000000000000018</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.3333333333333357</c:v>
+                  <c:v>6.6666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1666666666666692</c:v>
+                  <c:v>3.3333333333333326</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1031,25 +1084,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,7 +1744,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1898,25 +1951,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3789,9 +3842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3901,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>44</v>
@@ -4026,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>47</v>
@@ -4131,33 +4184,49 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="str">
+      <c r="A14" s="6">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B14" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="C14" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+        <v>Jake</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="str">
+      <c r="A15" s="6">
         <f t="shared" ref="A15:A78" si="3">IF(B15&lt;&gt;"",A14+1,"")</f>
-        <v/>
-      </c>
-      <c r="B15" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="C15" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+        <v>Jake</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -7437,14 +7506,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F300">
-    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="In progress">
-      <formula>NOT(ISERROR(SEARCH("In progress",F2)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Done">
-      <formula>NOT(ISERROR(SEARCH("Done",F2)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7512,11 +7581,11 @@
       </c>
       <c r="B2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!G$3:G$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H$3:H$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I$3:I$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
@@ -7588,7 +7657,7 @@
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I$3:I$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J$3:J$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
@@ -7613,27 +7682,27 @@
       </c>
       <c r="B5" s="1">
         <f>COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <f>COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)-COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)*(1/6)</f>
-        <v>15.833333333333334</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)-COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)*(2/6)</f>
-        <v>12.666666666666668</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="E5" s="1">
         <f>COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)-COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)*(3/6)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1">
         <f>COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)-COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)*(4/6)</f>
-        <v>6.3333333333333339</v>
+        <v>6.6666666666666679</v>
       </c>
       <c r="G5" s="1">
         <f>COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)-COUNTA('Sprint 1 backlog'!$G$3:$G$1048576)*(5/6)</f>
-        <v>3.1666666666666661</v>
+        <v>3.3333333333333321</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -7716,9 +7785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7735,610 +7804,805 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="22" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="10" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="str" cm="1">
+      <c r="B3" s="29" t="str" cm="1">
         <f t="array" ref="B3">IF(ISBLANK(A3),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A3),{0,1}))</f>
         <v>Create an account on the Admin Portal</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="29">
         <f t="shared" ref="C3:C22" si="0">IF(ISBLANK(A3),"",IF(A3&lt;&gt;A2,A3+0.1,C2+0.1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="7" t="str" cm="1">
+      <c r="E3" s="31" t="str" cm="1">
         <f t="array" ref="E3">IF(ISBLANK(A3),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A3),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F3" s="6" cm="1">
+      <c r="F3" s="29" cm="1">
         <f t="array" ref="F3">IF(ISBLANK(A3),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A3),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="str" cm="1">
+      <c r="B4" s="29" t="str" cm="1">
         <f t="array" ref="B4">IF(ISBLANK(A4),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A4),{0,1}))</f>
         <v>Create an account on the Admin Portal</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="29">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="7" t="str" cm="1">
+      <c r="E4" s="31" t="str" cm="1">
         <f t="array" ref="E4">IF(ISBLANK(A4),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A4),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F4" s="6" cm="1">
+      <c r="F4" s="29" cm="1">
         <f t="array" ref="F4">IF(ISBLANK(A4),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A4),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="str" cm="1">
+      <c r="B5" s="29" t="str" cm="1">
         <f t="array" ref="B5">IF(ISBLANK(A5),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A5),{0,1}))</f>
         <v>Create an account on the Admin Portal</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="29">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="7" t="str" cm="1">
+      <c r="E5" s="31" t="str" cm="1">
         <f t="array" ref="E5">IF(ISBLANK(A5),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A5),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F5" s="6" cm="1">
+      <c r="F5" s="29" cm="1">
         <f t="array" ref="F5">IF(ISBLANK(A5),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A5),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="29">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="str" cm="1">
+      <c r="B6" s="29" t="str" cm="1">
         <f t="array" ref="B6">IF(ISBLANK(A6),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A6),{0,1}))</f>
         <v>Log in to the Admin Portal</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="29">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7" t="str" cm="1">
+      <c r="E6" s="31" t="str" cm="1">
         <f t="array" ref="E6">IF(ISBLANK(A6),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A6),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F6" s="6" cm="1">
+      <c r="F6" s="29" cm="1">
         <f t="array" ref="F6">IF(ISBLANK(A6),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A6),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="str" cm="1">
+      <c r="B7" s="29" t="str" cm="1">
         <f t="array" ref="B7">IF(ISBLANK(A7),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A7),{0,1}))</f>
         <v>Log in to the Admin Portal</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="29">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7" t="str" cm="1">
+      <c r="E7" s="31" t="str" cm="1">
         <f t="array" ref="E7">IF(ISBLANK(A7),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A7),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F7" s="6" cm="1">
+      <c r="F7" s="29" cm="1">
         <f t="array" ref="F7">IF(ISBLANK(A7),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A7),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="str" cm="1">
+      <c r="B8" s="29" t="str" cm="1">
         <f t="array" ref="B8">IF(ISBLANK(A8),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A8),{0,1}))</f>
         <v>Log in to the Admin Portal</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="29">
         <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="7" t="str" cm="1">
+      <c r="E8" s="31" t="str" cm="1">
         <f t="array" ref="E8">IF(ISBLANK(A8),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A8),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F8" s="6" cm="1">
+      <c r="F8" s="29" cm="1">
         <f t="array" ref="F8">IF(ISBLANK(A8),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A8),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="6" t="str" cm="1">
+      <c r="B9" s="29" t="str" cm="1">
         <f t="array" ref="B9">IF(ISBLANK(A9),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A9),{0,1}))</f>
         <v>Create an article on the Admin Portal</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="29">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="7" t="str" cm="1">
+      <c r="E9" s="31" t="str" cm="1">
         <f t="array" ref="E9">IF(ISBLANK(A9),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A9),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F9" s="6" cm="1">
+      <c r="F9" s="29" cm="1">
         <f t="array" ref="F9">IF(ISBLANK(A9),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A9),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="29" t="s">
         <v>26</v>
       </c>
+      <c r="H9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="29">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="str" cm="1">
+      <c r="B10" s="29" t="str" cm="1">
         <f t="array" ref="B10">IF(ISBLANK(A10),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A10),{0,1}))</f>
         <v>Create an article on the Admin Portal</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="29">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="7" t="str" cm="1">
+      <c r="E10" s="31" t="str" cm="1">
         <f t="array" ref="E10">IF(ISBLANK(A10),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A10),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F10" s="6" cm="1">
+      <c r="F10" s="29" cm="1">
         <f t="array" ref="F10">IF(ISBLANK(A10),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A10),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="29" t="s">
         <v>26</v>
       </c>
+      <c r="H10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="29">
         <v>3</v>
       </c>
-      <c r="B11" s="6" t="str" cm="1">
+      <c r="B11" s="29" t="str" cm="1">
         <f t="array" ref="B11">IF(ISBLANK(A11),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A11),{0,1}))</f>
         <v>Create an article on the Admin Portal</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="29">
         <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="7" t="str" cm="1">
+      <c r="E11" s="31" t="str" cm="1">
         <f t="array" ref="E11">IF(ISBLANK(A11),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A11),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F11" s="6" cm="1">
+      <c r="F11" s="29" cm="1">
         <f t="array" ref="F11">IF(ISBLANK(A11),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A11),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="29" t="s">
         <v>26</v>
       </c>
+      <c r="H11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="29">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="str" cm="1">
+      <c r="B12" s="29" t="str" cm="1">
         <f t="array" ref="B12">IF(ISBLANK(A12),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A12),{0,1}))</f>
         <v>View available articles on the Blog on desktop</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="29">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="7" t="str" cm="1">
+      <c r="E12" s="31" t="str" cm="1">
         <f t="array" ref="E12">IF(ISBLANK(A12),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A12),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F12" s="6" cm="1">
+      <c r="F12" s="29" cm="1">
         <f t="array" ref="F12">IF(ISBLANK(A12),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A12),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="29" t="s">
         <v>26</v>
       </c>
+      <c r="H12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="29">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="str" cm="1">
+      <c r="B13" s="29" t="str" cm="1">
         <f t="array" ref="B13">IF(ISBLANK(A13),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A13),{0,1}))</f>
         <v>View available articles on the Blog on desktop</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="29">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="str" cm="1">
+      <c r="E13" s="31" t="str" cm="1">
         <f t="array" ref="E13">IF(ISBLANK(A13),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A13),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F13" s="6" cm="1">
+      <c r="F13" s="29" cm="1">
         <f t="array" ref="F13">IF(ISBLANK(A13),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A13),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="29" t="s">
         <v>26</v>
       </c>
+      <c r="H13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="29">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="str" cm="1">
+      <c r="B14" s="29" t="str" cm="1">
         <f t="array" ref="B14">IF(ISBLANK(A14),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A14),{0,1}))</f>
         <v>View available articles on the Blog on desktop</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="29">
         <f t="shared" si="0"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="7" t="str" cm="1">
+      <c r="E14" s="31" t="str" cm="1">
         <f t="array" ref="E14">IF(ISBLANK(A14),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A14),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F14" s="6" cm="1">
+      <c r="F14" s="29" cm="1">
         <f t="array" ref="F14">IF(ISBLANK(A14),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A14),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="29" t="s">
         <v>26</v>
       </c>
+      <c r="H14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="29">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="str" cm="1">
+      <c r="B15" s="29" t="str" cm="1">
         <f t="array" ref="B15">IF(ISBLANK(A15),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A15),{0,1}))</f>
         <v>Read a single article on the Blog on desktop</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="29">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="7" t="str" cm="1">
+      <c r="E15" s="31" t="str" cm="1">
         <f t="array" ref="E15">IF(ISBLANK(A15),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A15),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F15" s="6" cm="1">
+      <c r="F15" s="29" cm="1">
         <f t="array" ref="F15">IF(ISBLANK(A15),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A15),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="29" t="s">
         <v>26</v>
       </c>
+      <c r="H15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="29">
         <v>5</v>
       </c>
-      <c r="B16" s="6" t="str" cm="1">
+      <c r="B16" s="29" t="str" cm="1">
         <f t="array" ref="B16">IF(ISBLANK(A16),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A16),{0,1}))</f>
         <v>Read a single article on the Blog on desktop</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="29">
         <f t="shared" si="0"/>
         <v>5.1999999999999993</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="7" t="str" cm="1">
+      <c r="E16" s="31" t="str" cm="1">
         <f t="array" ref="E16">IF(ISBLANK(A16),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A16),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F16" s="6" cm="1">
+      <c r="F16" s="29" cm="1">
         <f t="array" ref="F16">IF(ISBLANK(A16),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A16),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="H16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="str" cm="1">
+      <c r="B17" s="29" t="str" cm="1">
         <f t="array" ref="B17">IF(ISBLANK(A17),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A17),{0,1}))</f>
         <v>Update an article on the Admin Portal</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="29">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="7" t="str" cm="1">
+      <c r="E17" s="31" t="str" cm="1">
         <f t="array" ref="E17">IF(ISBLANK(A17),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A17),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F17" s="6" cm="1">
+      <c r="F17" s="29" cm="1">
         <f t="array" ref="F17">IF(ISBLANK(A17),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A17),{0,0,0,0,1}))</f>
         <v>2</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>8</v>
-      </c>
-      <c r="B18" s="6" t="str" cm="1">
+      <c r="H17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>6</v>
+      </c>
+      <c r="B18" s="29" t="str" cm="1">
         <f t="array" ref="B18">IF(ISBLANK(A18),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A18),{0,1}))</f>
-        <v>View available articles on the Admin Portal</v>
-      </c>
-      <c r="C18" s="6">
+        <v>Update an article on the Admin Portal</v>
+      </c>
+      <c r="C18" s="29">
         <f t="shared" si="0"/>
-        <v>8.1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="7" t="str" cm="1">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="31" t="str" cm="1">
         <f t="array" ref="E18">IF(ISBLANK(A18),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A18),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F18" s="6" cm="1">
+      <c r="F18" s="29" cm="1">
         <f t="array" ref="F18">IF(ISBLANK(A18),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A18),{0,0,0,0,1}))</f>
-        <v>1</v>
-      </c>
-      <c r="G18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="H18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
         <v>8</v>
       </c>
-      <c r="B19" s="6" t="str" cm="1">
+      <c r="B19" s="29" t="str" cm="1">
         <f t="array" ref="B19">IF(ISBLANK(A19),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A19),{0,1}))</f>
         <v>View available articles on the Admin Portal</v>
       </c>
-      <c r="C19" s="6">
-        <f t="shared" si="0"/>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="7" t="str" cm="1">
+      <c r="C19" s="29">
+        <f t="shared" ref="C19:C22" si="1">IF(ISBLANK(A19),"",IF(A19&lt;&gt;A18,A19+0.1,C18+0.1))</f>
+        <v>8.1</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="31" t="str" cm="1">
         <f t="array" ref="E19">IF(ISBLANK(A19),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A19),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F19" s="6" cm="1">
+      <c r="F19" s="29" cm="1">
         <f t="array" ref="F19">IF(ISBLANK(A19),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A19),{0,0,0,0,1}))</f>
         <v>1</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="H19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="6" t="str" cm="1">
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>8</v>
+      </c>
+      <c r="B20" s="29" t="str" cm="1">
         <f t="array" ref="B20">IF(ISBLANK(A20),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A20),{0,1}))</f>
-        <v>View a selected article on the Admin Portal</v>
-      </c>
-      <c r="C20" s="6">
-        <f t="shared" si="0"/>
-        <v>9.1</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="7" t="str" cm="1">
+        <v>View available articles on the Admin Portal</v>
+      </c>
+      <c r="C20" s="29">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="31" t="str" cm="1">
         <f t="array" ref="E20">IF(ISBLANK(A20),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A20),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F20" s="6" cm="1">
+      <c r="F20" s="29" cm="1">
         <f t="array" ref="F20">IF(ISBLANK(A20),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A20),{0,0,0,0,1}))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="H20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="6" t="str" cm="1">
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>9</v>
+      </c>
+      <c r="B21" s="29" t="str" cm="1">
         <f t="array" ref="B21">IF(ISBLANK(A21),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A21),{0,1}))</f>
         <v>View a selected article on the Admin Portal</v>
       </c>
-      <c r="C21" s="6">
-        <f t="shared" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="7" t="str" cm="1">
+      <c r="C21" s="29">
+        <f t="shared" si="1"/>
+        <v>9.1</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="31" t="str" cm="1">
         <f t="array" ref="E21">IF(ISBLANK(A21),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A21),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F21" s="6" cm="1">
+      <c r="F21" s="29" cm="1">
         <f t="array" ref="F21">IF(ISBLANK(A21),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A21),{0,0,0,0,1}))</f>
         <v>1</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>9</v>
+      </c>
+      <c r="B22" s="29" t="str" cm="1">
+        <f t="array" ref="B22">IF(ISBLANK(A22),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A22),{0,1}))</f>
+        <v>View a selected article on the Admin Portal</v>
+      </c>
+      <c r="C22" s="29">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="31" t="str" cm="1">
+        <f t="array" ref="E22">IF(ISBLANK(A22),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A22),{0,0,1}))</f>
+        <v>Jake</v>
+      </c>
+      <c r="F22" s="29" cm="1">
+        <f t="array" ref="F22">IF(ISBLANK(A22),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A22),{0,0,0,0,1}))</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str" cm="1">
         <f t="array" ref="B23">IF(ISBLANK(A23),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A23),{0,1}))</f>
         <v/>
       </c>
       <c r="C23" s="6" t="str">
-        <f t="shared" ref="C23:C86" si="1">IF(ISBLANK(A23),"",IF(A23&lt;&gt;A22,A23+0.1,C22+0.1))</f>
+        <f t="shared" ref="C23:C86" si="2">IF(ISBLANK(A23),"",IF(A23&lt;&gt;A22,A23+0.1,C22+0.1))</f>
         <v/>
       </c>
       <c r="D23" s="5"/>
@@ -8351,13 +8615,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="str" cm="1">
         <f t="array" ref="B24">IF(ISBLANK(A24),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A24),{0,1}))</f>
         <v/>
       </c>
       <c r="C24" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D24" s="4"/>
@@ -8370,13 +8634,13 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="str" cm="1">
         <f t="array" ref="B25">IF(ISBLANK(A25),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A25),{0,1}))</f>
         <v/>
       </c>
       <c r="C25" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D25" s="4"/>
@@ -8389,13 +8653,13 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="str" cm="1">
         <f t="array" ref="B26">IF(ISBLANK(A26),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A26),{0,1}))</f>
         <v/>
       </c>
       <c r="C26" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D26" s="4"/>
@@ -8408,13 +8672,13 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="str" cm="1">
         <f t="array" ref="B27">IF(ISBLANK(A27),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A27),{0,1}))</f>
         <v/>
       </c>
       <c r="C27" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D27" s="4"/>
@@ -8427,13 +8691,13 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="str" cm="1">
         <f t="array" ref="B28">IF(ISBLANK(A28),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A28),{0,1}))</f>
         <v/>
       </c>
       <c r="C28" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D28" s="4"/>
@@ -8446,13 +8710,13 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="str" cm="1">
         <f t="array" ref="B29">IF(ISBLANK(A29),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A29),{0,1}))</f>
         <v/>
       </c>
       <c r="C29" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D29" s="4"/>
@@ -8465,13 +8729,13 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="str" cm="1">
         <f t="array" ref="B30">IF(ISBLANK(A30),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A30),{0,1}))</f>
         <v/>
       </c>
       <c r="C30" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D30" s="4"/>
@@ -8484,13 +8748,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="str" cm="1">
         <f t="array" ref="B31">IF(ISBLANK(A31),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A31),{0,1}))</f>
         <v/>
       </c>
       <c r="C31" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D31" s="4"/>
@@ -8503,13 +8767,13 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="str" cm="1">
         <f t="array" ref="B32">IF(ISBLANK(A32),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A32),{0,1}))</f>
         <v/>
       </c>
       <c r="C32" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D32" s="4"/>
@@ -8528,7 +8792,7 @@
         <v/>
       </c>
       <c r="C33" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D33" s="4"/>
@@ -8547,7 +8811,7 @@
         <v/>
       </c>
       <c r="C34" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D34" s="4"/>
@@ -8566,7 +8830,7 @@
         <v/>
       </c>
       <c r="C35" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D35" s="4"/>
@@ -8585,7 +8849,7 @@
         <v/>
       </c>
       <c r="C36" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D36" s="4"/>
@@ -8604,7 +8868,7 @@
         <v/>
       </c>
       <c r="C37" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D37" s="4"/>
@@ -8623,7 +8887,7 @@
         <v/>
       </c>
       <c r="C38" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D38" s="4"/>
@@ -8642,7 +8906,7 @@
         <v/>
       </c>
       <c r="C39" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D39" s="4"/>
@@ -8661,7 +8925,7 @@
         <v/>
       </c>
       <c r="C40" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D40" s="4"/>
@@ -8680,7 +8944,7 @@
         <v/>
       </c>
       <c r="C41" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D41" s="4"/>
@@ -8699,7 +8963,7 @@
         <v/>
       </c>
       <c r="C42" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D42" s="4"/>
@@ -8718,7 +8982,7 @@
         <v/>
       </c>
       <c r="C43" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D43" s="4"/>
@@ -8737,7 +9001,7 @@
         <v/>
       </c>
       <c r="C44" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D44" s="4"/>
@@ -8756,7 +9020,7 @@
         <v/>
       </c>
       <c r="C45" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D45" s="4"/>
@@ -8775,7 +9039,7 @@
         <v/>
       </c>
       <c r="C46" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D46" s="4"/>
@@ -8794,7 +9058,7 @@
         <v/>
       </c>
       <c r="C47" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D47" s="4"/>
@@ -8813,7 +9077,7 @@
         <v/>
       </c>
       <c r="C48" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D48" s="4"/>
@@ -8832,7 +9096,7 @@
         <v/>
       </c>
       <c r="C49" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D49" s="4"/>
@@ -8851,7 +9115,7 @@
         <v/>
       </c>
       <c r="C50" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D50" s="4"/>
@@ -8870,7 +9134,7 @@
         <v/>
       </c>
       <c r="C51" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D51" s="4"/>
@@ -8889,7 +9153,7 @@
         <v/>
       </c>
       <c r="C52" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D52" s="4"/>
@@ -8908,7 +9172,7 @@
         <v/>
       </c>
       <c r="C53" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D53" s="4"/>
@@ -8927,7 +9191,7 @@
         <v/>
       </c>
       <c r="C54" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D54" s="4"/>
@@ -8946,7 +9210,7 @@
         <v/>
       </c>
       <c r="C55" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D55" s="4"/>
@@ -8965,7 +9229,7 @@
         <v/>
       </c>
       <c r="C56" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D56" s="4"/>
@@ -8984,7 +9248,7 @@
         <v/>
       </c>
       <c r="C57" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D57" s="4"/>
@@ -9003,7 +9267,7 @@
         <v/>
       </c>
       <c r="C58" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D58" s="4"/>
@@ -9022,7 +9286,7 @@
         <v/>
       </c>
       <c r="C59" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D59" s="4"/>
@@ -9041,7 +9305,7 @@
         <v/>
       </c>
       <c r="C60" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D60" s="4"/>
@@ -9060,7 +9324,7 @@
         <v/>
       </c>
       <c r="C61" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D61" s="4"/>
@@ -9079,7 +9343,7 @@
         <v/>
       </c>
       <c r="C62" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D62" s="4"/>
@@ -9098,7 +9362,7 @@
         <v/>
       </c>
       <c r="C63" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D63" s="4"/>
@@ -9117,7 +9381,7 @@
         <v/>
       </c>
       <c r="C64" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D64" s="4"/>
@@ -9136,7 +9400,7 @@
         <v/>
       </c>
       <c r="C65" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D65" s="4"/>
@@ -9155,7 +9419,7 @@
         <v/>
       </c>
       <c r="C66" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D66" s="4"/>
@@ -9174,7 +9438,7 @@
         <v/>
       </c>
       <c r="C67" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D67" s="4"/>
@@ -9193,7 +9457,7 @@
         <v/>
       </c>
       <c r="C68" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D68" s="4"/>
@@ -9212,7 +9476,7 @@
         <v/>
       </c>
       <c r="C69" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D69" s="4"/>
@@ -9231,7 +9495,7 @@
         <v/>
       </c>
       <c r="C70" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D70" s="4"/>
@@ -9250,7 +9514,7 @@
         <v/>
       </c>
       <c r="C71" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D71" s="4"/>
@@ -9269,7 +9533,7 @@
         <v/>
       </c>
       <c r="C72" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D72" s="4"/>
@@ -9288,7 +9552,7 @@
         <v/>
       </c>
       <c r="C73" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D73" s="4"/>
@@ -9307,7 +9571,7 @@
         <v/>
       </c>
       <c r="C74" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D74" s="4"/>
@@ -9326,7 +9590,7 @@
         <v/>
       </c>
       <c r="C75" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D75" s="4"/>
@@ -9345,7 +9609,7 @@
         <v/>
       </c>
       <c r="C76" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D76" s="4"/>
@@ -9364,7 +9628,7 @@
         <v/>
       </c>
       <c r="C77" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D77" s="4"/>
@@ -9383,7 +9647,7 @@
         <v/>
       </c>
       <c r="C78" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D78" s="4"/>
@@ -9402,7 +9666,7 @@
         <v/>
       </c>
       <c r="C79" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D79" s="4"/>
@@ -9421,7 +9685,7 @@
         <v/>
       </c>
       <c r="C80" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D80" s="4"/>
@@ -9440,7 +9704,7 @@
         <v/>
       </c>
       <c r="C81" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D81" s="4"/>
@@ -9459,7 +9723,7 @@
         <v/>
       </c>
       <c r="C82" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D82" s="4"/>
@@ -9478,7 +9742,7 @@
         <v/>
       </c>
       <c r="C83" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D83" s="4"/>
@@ -9497,7 +9761,7 @@
         <v/>
       </c>
       <c r="C84" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D84" s="4"/>
@@ -9516,7 +9780,7 @@
         <v/>
       </c>
       <c r="C85" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D85" s="4"/>
@@ -9535,7 +9799,7 @@
         <v/>
       </c>
       <c r="C86" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="D86" s="4"/>
@@ -9554,7 +9818,7 @@
         <v/>
       </c>
       <c r="C87" s="6" t="str">
-        <f t="shared" ref="C87:C150" si="2">IF(ISBLANK(A87),"",IF(A87&lt;&gt;A86,A87+0.1,C86+0.1))</f>
+        <f t="shared" ref="C87:C150" si="3">IF(ISBLANK(A87),"",IF(A87&lt;&gt;A86,A87+0.1,C86+0.1))</f>
         <v/>
       </c>
       <c r="D87" s="4"/>
@@ -9573,7 +9837,7 @@
         <v/>
       </c>
       <c r="C88" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D88" s="4"/>
@@ -9592,7 +9856,7 @@
         <v/>
       </c>
       <c r="C89" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="D89" s="4"/>
@@ -9611,7 +9875,7 @@
         <v/>
       </c>
       <c r="C90" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E90" s="7" t="str" cm="1">
@@ -9629,7 +9893,7 @@
         <v/>
       </c>
       <c r="C91" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E91" s="7" t="str" cm="1">
@@ -9647,7 +9911,7 @@
         <v/>
       </c>
       <c r="C92" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E92" s="7" t="str" cm="1">
@@ -9665,7 +9929,7 @@
         <v/>
       </c>
       <c r="C93" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E93" s="7" t="str" cm="1">
@@ -9683,7 +9947,7 @@
         <v/>
       </c>
       <c r="C94" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E94" s="7" t="str" cm="1">
@@ -9701,7 +9965,7 @@
         <v/>
       </c>
       <c r="C95" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E95" s="7" t="str" cm="1">
@@ -9719,7 +9983,7 @@
         <v/>
       </c>
       <c r="C96" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E96" s="7" t="str" cm="1">
@@ -9737,7 +10001,7 @@
         <v/>
       </c>
       <c r="C97" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E97" s="7" t="str" cm="1">
@@ -9755,7 +10019,7 @@
         <v/>
       </c>
       <c r="C98" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E98" s="7" t="str" cm="1">
@@ -9773,7 +10037,7 @@
         <v/>
       </c>
       <c r="C99" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E99" s="7" t="str" cm="1">
@@ -9791,7 +10055,7 @@
         <v/>
       </c>
       <c r="C100" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E100" s="7" t="str" cm="1">
@@ -9809,7 +10073,7 @@
         <v/>
       </c>
       <c r="C101" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E101" s="7" t="str" cm="1">
@@ -9827,7 +10091,7 @@
         <v/>
       </c>
       <c r="C102" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E102" s="7" t="str" cm="1">
@@ -9845,7 +10109,7 @@
         <v/>
       </c>
       <c r="C103" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E103" s="7" t="str" cm="1">
@@ -9863,7 +10127,7 @@
         <v/>
       </c>
       <c r="C104" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E104" s="7" t="str" cm="1">
@@ -9881,7 +10145,7 @@
         <v/>
       </c>
       <c r="C105" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E105" s="7" t="str" cm="1">
@@ -9899,7 +10163,7 @@
         <v/>
       </c>
       <c r="C106" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E106" s="7" t="str" cm="1">
@@ -9917,7 +10181,7 @@
         <v/>
       </c>
       <c r="C107" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E107" s="7" t="str" cm="1">
@@ -9935,7 +10199,7 @@
         <v/>
       </c>
       <c r="C108" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E108" s="7" t="str" cm="1">
@@ -9953,7 +10217,7 @@
         <v/>
       </c>
       <c r="C109" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E109" s="7" t="str" cm="1">
@@ -9971,7 +10235,7 @@
         <v/>
       </c>
       <c r="C110" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E110" s="7" t="str" cm="1">
@@ -9989,7 +10253,7 @@
         <v/>
       </c>
       <c r="C111" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E111" s="7" t="str" cm="1">
@@ -10007,7 +10271,7 @@
         <v/>
       </c>
       <c r="C112" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E112" s="7" t="str" cm="1">
@@ -10025,7 +10289,7 @@
         <v/>
       </c>
       <c r="C113" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E113" s="7" t="str" cm="1">
@@ -10043,7 +10307,7 @@
         <v/>
       </c>
       <c r="C114" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E114" s="7" t="str" cm="1">
@@ -10061,7 +10325,7 @@
         <v/>
       </c>
       <c r="C115" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E115" s="7" t="str" cm="1">
@@ -10079,7 +10343,7 @@
         <v/>
       </c>
       <c r="C116" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E116" s="7" t="str" cm="1">
@@ -10097,7 +10361,7 @@
         <v/>
       </c>
       <c r="C117" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E117" s="7" t="str" cm="1">
@@ -10115,7 +10379,7 @@
         <v/>
       </c>
       <c r="C118" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E118" s="7" t="str" cm="1">
@@ -10133,7 +10397,7 @@
         <v/>
       </c>
       <c r="C119" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E119" s="7" t="str" cm="1">
@@ -10151,7 +10415,7 @@
         <v/>
       </c>
       <c r="C120" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E120" s="7" t="str" cm="1">
@@ -10169,7 +10433,7 @@
         <v/>
       </c>
       <c r="C121" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E121" s="7" t="str" cm="1">
@@ -10187,7 +10451,7 @@
         <v/>
       </c>
       <c r="C122" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E122" s="7" t="str" cm="1">
@@ -10205,7 +10469,7 @@
         <v/>
       </c>
       <c r="C123" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E123" s="7" t="str" cm="1">
@@ -10223,7 +10487,7 @@
         <v/>
       </c>
       <c r="C124" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E124" s="7" t="str" cm="1">
@@ -10241,7 +10505,7 @@
         <v/>
       </c>
       <c r="C125" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E125" s="7" t="str" cm="1">
@@ -10259,7 +10523,7 @@
         <v/>
       </c>
       <c r="C126" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E126" s="7" t="str" cm="1">
@@ -10277,7 +10541,7 @@
         <v/>
       </c>
       <c r="C127" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E127" s="7" t="str" cm="1">
@@ -10295,7 +10559,7 @@
         <v/>
       </c>
       <c r="C128" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E128" s="7" t="str" cm="1">
@@ -10313,7 +10577,7 @@
         <v/>
       </c>
       <c r="C129" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E129" s="7" t="str" cm="1">
@@ -10331,7 +10595,7 @@
         <v/>
       </c>
       <c r="C130" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E130" s="7" t="str" cm="1">
@@ -10349,7 +10613,7 @@
         <v/>
       </c>
       <c r="C131" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E131" s="7" t="str" cm="1">
@@ -10367,7 +10631,7 @@
         <v/>
       </c>
       <c r="C132" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E132" s="7" t="str" cm="1">
@@ -10385,7 +10649,7 @@
         <v/>
       </c>
       <c r="C133" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E133" s="7" t="str" cm="1">
@@ -10403,7 +10667,7 @@
         <v/>
       </c>
       <c r="C134" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E134" s="7" t="str" cm="1">
@@ -10421,7 +10685,7 @@
         <v/>
       </c>
       <c r="C135" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E135" s="7" t="str" cm="1">
@@ -10439,7 +10703,7 @@
         <v/>
       </c>
       <c r="C136" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E136" s="7" t="str" cm="1">
@@ -10457,7 +10721,7 @@
         <v/>
       </c>
       <c r="C137" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E137" s="7" t="str" cm="1">
@@ -10475,7 +10739,7 @@
         <v/>
       </c>
       <c r="C138" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E138" s="7" t="str" cm="1">
@@ -10493,7 +10757,7 @@
         <v/>
       </c>
       <c r="C139" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E139" s="7" t="str" cm="1">
@@ -10511,7 +10775,7 @@
         <v/>
       </c>
       <c r="C140" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E140" s="7" t="str" cm="1">
@@ -10529,7 +10793,7 @@
         <v/>
       </c>
       <c r="C141" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E141" s="7" t="str" cm="1">
@@ -10547,7 +10811,7 @@
         <v/>
       </c>
       <c r="C142" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E142" s="7" t="str" cm="1">
@@ -10565,7 +10829,7 @@
         <v/>
       </c>
       <c r="C143" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E143" s="7" t="str" cm="1">
@@ -10583,7 +10847,7 @@
         <v/>
       </c>
       <c r="C144" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E144" s="7" t="str" cm="1">
@@ -10601,7 +10865,7 @@
         <v/>
       </c>
       <c r="C145" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E145" s="7" t="str" cm="1">
@@ -10619,7 +10883,7 @@
         <v/>
       </c>
       <c r="C146" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E146" s="7" t="str" cm="1">
@@ -10637,7 +10901,7 @@
         <v/>
       </c>
       <c r="C147" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E147" s="7" t="str" cm="1">
@@ -10655,7 +10919,7 @@
         <v/>
       </c>
       <c r="C148" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E148" s="7" t="str" cm="1">
@@ -10673,7 +10937,7 @@
         <v/>
       </c>
       <c r="C149" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E149" s="7" t="str" cm="1">
@@ -10691,7 +10955,7 @@
         <v/>
       </c>
       <c r="C150" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E150" s="7" t="str" cm="1">
@@ -10709,7 +10973,7 @@
         <v/>
       </c>
       <c r="C151" s="6" t="str">
-        <f t="shared" ref="C151:C214" si="3">IF(ISBLANK(A151),"",IF(A151&lt;&gt;A150,A151+0.1,C150+0.1))</f>
+        <f t="shared" ref="C151:C214" si="4">IF(ISBLANK(A151),"",IF(A151&lt;&gt;A150,A151+0.1,C150+0.1))</f>
         <v/>
       </c>
       <c r="E151" s="7" t="str" cm="1">
@@ -10727,7 +10991,7 @@
         <v/>
       </c>
       <c r="C152" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E152" s="7" t="str" cm="1">
@@ -10745,7 +11009,7 @@
         <v/>
       </c>
       <c r="C153" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E153" s="7" t="str" cm="1">
@@ -10763,7 +11027,7 @@
         <v/>
       </c>
       <c r="C154" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E154" s="7" t="str" cm="1">
@@ -10781,7 +11045,7 @@
         <v/>
       </c>
       <c r="C155" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E155" s="7" t="str" cm="1">
@@ -10799,7 +11063,7 @@
         <v/>
       </c>
       <c r="C156" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E156" s="7" t="str" cm="1">
@@ -10817,7 +11081,7 @@
         <v/>
       </c>
       <c r="C157" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E157" s="7" t="str" cm="1">
@@ -10835,7 +11099,7 @@
         <v/>
       </c>
       <c r="C158" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E158" s="7" t="str" cm="1">
@@ -10853,7 +11117,7 @@
         <v/>
       </c>
       <c r="C159" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E159" s="7" t="str" cm="1">
@@ -10871,7 +11135,7 @@
         <v/>
       </c>
       <c r="C160" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E160" s="7" t="str" cm="1">
@@ -10889,7 +11153,7 @@
         <v/>
       </c>
       <c r="C161" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E161" s="7" t="str" cm="1">
@@ -10907,7 +11171,7 @@
         <v/>
       </c>
       <c r="C162" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E162" s="7" t="str" cm="1">
@@ -10925,7 +11189,7 @@
         <v/>
       </c>
       <c r="C163" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E163" s="7" t="str" cm="1">
@@ -10943,7 +11207,7 @@
         <v/>
       </c>
       <c r="C164" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E164" s="7" t="str" cm="1">
@@ -10961,7 +11225,7 @@
         <v/>
       </c>
       <c r="C165" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E165" s="7" t="str" cm="1">
@@ -10979,7 +11243,7 @@
         <v/>
       </c>
       <c r="C166" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E166" s="7" t="str" cm="1">
@@ -10997,7 +11261,7 @@
         <v/>
       </c>
       <c r="C167" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E167" s="7" t="str" cm="1">
@@ -11015,7 +11279,7 @@
         <v/>
       </c>
       <c r="C168" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E168" s="7" t="str" cm="1">
@@ -11033,7 +11297,7 @@
         <v/>
       </c>
       <c r="C169" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E169" s="7" t="str" cm="1">
@@ -11051,7 +11315,7 @@
         <v/>
       </c>
       <c r="C170" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E170" s="7" t="str" cm="1">
@@ -11069,7 +11333,7 @@
         <v/>
       </c>
       <c r="C171" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E171" s="7" t="str" cm="1">
@@ -11087,7 +11351,7 @@
         <v/>
       </c>
       <c r="C172" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E172" s="7" t="str" cm="1">
@@ -11105,7 +11369,7 @@
         <v/>
       </c>
       <c r="C173" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E173" s="7" t="str" cm="1">
@@ -11123,7 +11387,7 @@
         <v/>
       </c>
       <c r="C174" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E174" s="7" t="str" cm="1">
@@ -11141,7 +11405,7 @@
         <v/>
       </c>
       <c r="C175" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E175" s="7" t="str" cm="1">
@@ -11159,7 +11423,7 @@
         <v/>
       </c>
       <c r="C176" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E176" s="7" t="str" cm="1">
@@ -11177,7 +11441,7 @@
         <v/>
       </c>
       <c r="C177" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E177" s="7" t="str" cm="1">
@@ -11195,7 +11459,7 @@
         <v/>
       </c>
       <c r="C178" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E178" s="7" t="str" cm="1">
@@ -11213,7 +11477,7 @@
         <v/>
       </c>
       <c r="C179" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E179" s="7" t="str" cm="1">
@@ -11231,7 +11495,7 @@
         <v/>
       </c>
       <c r="C180" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E180" s="7" t="str" cm="1">
@@ -11249,7 +11513,7 @@
         <v/>
       </c>
       <c r="C181" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E181" s="7" t="str" cm="1">
@@ -11267,7 +11531,7 @@
         <v/>
       </c>
       <c r="C182" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E182" s="7" t="str" cm="1">
@@ -11285,7 +11549,7 @@
         <v/>
       </c>
       <c r="C183" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E183" s="7" t="str" cm="1">
@@ -11303,7 +11567,7 @@
         <v/>
       </c>
       <c r="C184" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E184" s="7" t="str" cm="1">
@@ -11321,7 +11585,7 @@
         <v/>
       </c>
       <c r="C185" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E185" s="7" t="str" cm="1">
@@ -11339,7 +11603,7 @@
         <v/>
       </c>
       <c r="C186" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E186" s="7" t="str" cm="1">
@@ -11357,7 +11621,7 @@
         <v/>
       </c>
       <c r="C187" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E187" s="7" t="str" cm="1">
@@ -11375,7 +11639,7 @@
         <v/>
       </c>
       <c r="C188" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E188" s="7" t="str" cm="1">
@@ -11393,7 +11657,7 @@
         <v/>
       </c>
       <c r="C189" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E189" s="7" t="str" cm="1">
@@ -11411,7 +11675,7 @@
         <v/>
       </c>
       <c r="C190" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E190" s="7" t="str" cm="1">
@@ -11429,7 +11693,7 @@
         <v/>
       </c>
       <c r="C191" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E191" s="7" t="str" cm="1">
@@ -11447,7 +11711,7 @@
         <v/>
       </c>
       <c r="C192" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E192" s="7" t="str" cm="1">
@@ -11465,7 +11729,7 @@
         <v/>
       </c>
       <c r="C193" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E193" s="7" t="str" cm="1">
@@ -11483,7 +11747,7 @@
         <v/>
       </c>
       <c r="C194" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E194" s="7" t="str" cm="1">
@@ -11501,7 +11765,7 @@
         <v/>
       </c>
       <c r="C195" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E195" s="7" t="str" cm="1">
@@ -11519,7 +11783,7 @@
         <v/>
       </c>
       <c r="C196" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E196" s="7" t="str" cm="1">
@@ -11537,7 +11801,7 @@
         <v/>
       </c>
       <c r="C197" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E197" s="7" t="str" cm="1">
@@ -11555,7 +11819,7 @@
         <v/>
       </c>
       <c r="C198" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E198" s="7" t="str" cm="1">
@@ -11573,7 +11837,7 @@
         <v/>
       </c>
       <c r="C199" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E199" s="7" t="str" cm="1">
@@ -11591,7 +11855,7 @@
         <v/>
       </c>
       <c r="C200" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E200" s="7" t="str" cm="1">
@@ -11609,7 +11873,7 @@
         <v/>
       </c>
       <c r="C201" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E201" s="7" t="str" cm="1">
@@ -11627,7 +11891,7 @@
         <v/>
       </c>
       <c r="C202" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E202" s="7" t="str" cm="1">
@@ -11645,7 +11909,7 @@
         <v/>
       </c>
       <c r="C203" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E203" s="7" t="str" cm="1">
@@ -11663,7 +11927,7 @@
         <v/>
       </c>
       <c r="C204" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E204" s="7" t="str" cm="1">
@@ -11681,7 +11945,7 @@
         <v/>
       </c>
       <c r="C205" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E205" s="7" t="str" cm="1">
@@ -11699,7 +11963,7 @@
         <v/>
       </c>
       <c r="C206" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E206" s="7" t="str" cm="1">
@@ -11717,7 +11981,7 @@
         <v/>
       </c>
       <c r="C207" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E207" s="7" t="str" cm="1">
@@ -11735,7 +11999,7 @@
         <v/>
       </c>
       <c r="C208" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E208" s="7" t="str" cm="1">
@@ -11753,7 +12017,7 @@
         <v/>
       </c>
       <c r="C209" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E209" s="7" t="str" cm="1">
@@ -11771,7 +12035,7 @@
         <v/>
       </c>
       <c r="C210" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E210" s="7" t="str" cm="1">
@@ -11789,7 +12053,7 @@
         <v/>
       </c>
       <c r="C211" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E211" s="7" t="str" cm="1">
@@ -11807,7 +12071,7 @@
         <v/>
       </c>
       <c r="C212" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E212" s="7" t="str" cm="1">
@@ -11825,7 +12089,7 @@
         <v/>
       </c>
       <c r="C213" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E213" s="7" t="str" cm="1">
@@ -11843,7 +12107,7 @@
         <v/>
       </c>
       <c r="C214" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E214" s="7" t="str" cm="1">
@@ -11861,7 +12125,7 @@
         <v/>
       </c>
       <c r="C215" s="6" t="str">
-        <f t="shared" ref="C215:C278" si="4">IF(ISBLANK(A215),"",IF(A215&lt;&gt;A214,A215+0.1,C214+0.1))</f>
+        <f t="shared" ref="C215:C278" si="5">IF(ISBLANK(A215),"",IF(A215&lt;&gt;A214,A215+0.1,C214+0.1))</f>
         <v/>
       </c>
       <c r="E215" s="7" t="str" cm="1">
@@ -11879,7 +12143,7 @@
         <v/>
       </c>
       <c r="C216" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E216" s="7" t="str" cm="1">
@@ -11897,7 +12161,7 @@
         <v/>
       </c>
       <c r="C217" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E217" s="7" t="str" cm="1">
@@ -11915,7 +12179,7 @@
         <v/>
       </c>
       <c r="C218" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E218" s="7" t="str" cm="1">
@@ -11933,7 +12197,7 @@
         <v/>
       </c>
       <c r="C219" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E219" s="7" t="str" cm="1">
@@ -11951,7 +12215,7 @@
         <v/>
       </c>
       <c r="C220" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E220" s="7" t="str" cm="1">
@@ -11969,7 +12233,7 @@
         <v/>
       </c>
       <c r="C221" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E221" s="7" t="str" cm="1">
@@ -11987,7 +12251,7 @@
         <v/>
       </c>
       <c r="C222" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E222" s="7" t="str" cm="1">
@@ -12005,7 +12269,7 @@
         <v/>
       </c>
       <c r="C223" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E223" s="7" t="str" cm="1">
@@ -12023,7 +12287,7 @@
         <v/>
       </c>
       <c r="C224" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E224" s="7" t="str" cm="1">
@@ -12041,7 +12305,7 @@
         <v/>
       </c>
       <c r="C225" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E225" s="7" t="str" cm="1">
@@ -12059,7 +12323,7 @@
         <v/>
       </c>
       <c r="C226" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E226" s="7" t="str" cm="1">
@@ -12077,7 +12341,7 @@
         <v/>
       </c>
       <c r="C227" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E227" s="7" t="str" cm="1">
@@ -12095,7 +12359,7 @@
         <v/>
       </c>
       <c r="C228" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E228" s="7" t="str" cm="1">
@@ -12113,7 +12377,7 @@
         <v/>
       </c>
       <c r="C229" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E229" s="7" t="str" cm="1">
@@ -12131,7 +12395,7 @@
         <v/>
       </c>
       <c r="C230" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E230" s="7" t="str" cm="1">
@@ -12149,7 +12413,7 @@
         <v/>
       </c>
       <c r="C231" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E231" s="7" t="str" cm="1">
@@ -12167,7 +12431,7 @@
         <v/>
       </c>
       <c r="C232" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E232" s="7" t="str" cm="1">
@@ -12185,7 +12449,7 @@
         <v/>
       </c>
       <c r="C233" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E233" s="7" t="str" cm="1">
@@ -12203,7 +12467,7 @@
         <v/>
       </c>
       <c r="C234" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E234" s="7" t="str" cm="1">
@@ -12221,7 +12485,7 @@
         <v/>
       </c>
       <c r="C235" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E235" s="7" t="str" cm="1">
@@ -12239,7 +12503,7 @@
         <v/>
       </c>
       <c r="C236" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E236" s="7" t="str" cm="1">
@@ -12257,7 +12521,7 @@
         <v/>
       </c>
       <c r="C237" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E237" s="7" t="str" cm="1">
@@ -12275,7 +12539,7 @@
         <v/>
       </c>
       <c r="C238" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E238" s="7" t="str" cm="1">
@@ -12293,7 +12557,7 @@
         <v/>
       </c>
       <c r="C239" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E239" s="7" t="str" cm="1">
@@ -12311,7 +12575,7 @@
         <v/>
       </c>
       <c r="C240" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E240" s="7" t="str" cm="1">
@@ -12329,7 +12593,7 @@
         <v/>
       </c>
       <c r="C241" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E241" s="7" t="str" cm="1">
@@ -12347,7 +12611,7 @@
         <v/>
       </c>
       <c r="C242" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E242" s="7" t="str" cm="1">
@@ -12365,7 +12629,7 @@
         <v/>
       </c>
       <c r="C243" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E243" s="7" t="str" cm="1">
@@ -12383,7 +12647,7 @@
         <v/>
       </c>
       <c r="C244" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E244" s="7" t="str" cm="1">
@@ -12401,7 +12665,7 @@
         <v/>
       </c>
       <c r="C245" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E245" s="7" t="str" cm="1">
@@ -12419,7 +12683,7 @@
         <v/>
       </c>
       <c r="C246" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E246" s="7" t="str" cm="1">
@@ -12437,7 +12701,7 @@
         <v/>
       </c>
       <c r="C247" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E247" s="7" t="str" cm="1">
@@ -12455,7 +12719,7 @@
         <v/>
       </c>
       <c r="C248" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E248" s="7" t="str" cm="1">
@@ -12473,7 +12737,7 @@
         <v/>
       </c>
       <c r="C249" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E249" s="7" t="str" cm="1">
@@ -12491,7 +12755,7 @@
         <v/>
       </c>
       <c r="C250" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E250" s="7" t="str" cm="1">
@@ -12509,7 +12773,7 @@
         <v/>
       </c>
       <c r="C251" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E251" s="7" t="str" cm="1">
@@ -12527,7 +12791,7 @@
         <v/>
       </c>
       <c r="C252" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E252" s="7" t="str" cm="1">
@@ -12545,7 +12809,7 @@
         <v/>
       </c>
       <c r="C253" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E253" s="7" t="str" cm="1">
@@ -12563,7 +12827,7 @@
         <v/>
       </c>
       <c r="C254" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E254" s="7" t="str" cm="1">
@@ -12581,7 +12845,7 @@
         <v/>
       </c>
       <c r="C255" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E255" s="7" t="str" cm="1">
@@ -12599,7 +12863,7 @@
         <v/>
       </c>
       <c r="C256" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E256" s="7" t="str" cm="1">
@@ -12617,7 +12881,7 @@
         <v/>
       </c>
       <c r="C257" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E257" s="7" t="str" cm="1">
@@ -12635,7 +12899,7 @@
         <v/>
       </c>
       <c r="C258" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E258" s="7" t="str" cm="1">
@@ -12653,7 +12917,7 @@
         <v/>
       </c>
       <c r="C259" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E259" s="7" t="str" cm="1">
@@ -12671,7 +12935,7 @@
         <v/>
       </c>
       <c r="C260" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E260" s="7" t="str" cm="1">
@@ -12689,7 +12953,7 @@
         <v/>
       </c>
       <c r="C261" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E261" s="7" t="str" cm="1">
@@ -12707,7 +12971,7 @@
         <v/>
       </c>
       <c r="C262" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E262" s="7" t="str" cm="1">
@@ -12725,7 +12989,7 @@
         <v/>
       </c>
       <c r="C263" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E263" s="7" t="str" cm="1">
@@ -12743,7 +13007,7 @@
         <v/>
       </c>
       <c r="C264" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E264" s="7" t="str" cm="1">
@@ -12761,7 +13025,7 @@
         <v/>
       </c>
       <c r="C265" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E265" s="7" t="str" cm="1">
@@ -12779,7 +13043,7 @@
         <v/>
       </c>
       <c r="C266" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E266" s="7" t="str" cm="1">
@@ -12797,7 +13061,7 @@
         <v/>
       </c>
       <c r="C267" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E267" s="7" t="str" cm="1">
@@ -12815,7 +13079,7 @@
         <v/>
       </c>
       <c r="C268" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E268" s="7" t="str" cm="1">
@@ -12833,7 +13097,7 @@
         <v/>
       </c>
       <c r="C269" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E269" s="7" t="str" cm="1">
@@ -12851,7 +13115,7 @@
         <v/>
       </c>
       <c r="C270" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E270" s="7" t="str" cm="1">
@@ -12869,7 +13133,7 @@
         <v/>
       </c>
       <c r="C271" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E271" s="7" t="str" cm="1">
@@ -12887,7 +13151,7 @@
         <v/>
       </c>
       <c r="C272" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E272" s="7" t="str" cm="1">
@@ -12905,7 +13169,7 @@
         <v/>
       </c>
       <c r="C273" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E273" s="7" t="str" cm="1">
@@ -12923,7 +13187,7 @@
         <v/>
       </c>
       <c r="C274" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E274" s="7" t="str" cm="1">
@@ -12941,7 +13205,7 @@
         <v/>
       </c>
       <c r="C275" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E275" s="7" t="str" cm="1">
@@ -12959,7 +13223,7 @@
         <v/>
       </c>
       <c r="C276" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E276" s="7" t="str" cm="1">
@@ -12977,7 +13241,7 @@
         <v/>
       </c>
       <c r="C277" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E277" s="7" t="str" cm="1">
@@ -12995,7 +13259,7 @@
         <v/>
       </c>
       <c r="C278" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="E278" s="7" t="str" cm="1">
@@ -13013,7 +13277,7 @@
         <v/>
       </c>
       <c r="C279" s="6" t="str">
-        <f t="shared" ref="C279:C300" si="5">IF(ISBLANK(A279),"",IF(A279&lt;&gt;A278,A279+0.1,C278+0.1))</f>
+        <f t="shared" ref="C279:C300" si="6">IF(ISBLANK(A279),"",IF(A279&lt;&gt;A278,A279+0.1,C278+0.1))</f>
         <v/>
       </c>
       <c r="E279" s="7" t="str" cm="1">
@@ -13031,7 +13295,7 @@
         <v/>
       </c>
       <c r="C280" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E280" s="7" t="str" cm="1">
@@ -13049,7 +13313,7 @@
         <v/>
       </c>
       <c r="C281" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E281" s="7" t="str" cm="1">
@@ -13067,7 +13331,7 @@
         <v/>
       </c>
       <c r="C282" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E282" s="7" t="str" cm="1">
@@ -13085,7 +13349,7 @@
         <v/>
       </c>
       <c r="C283" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E283" s="7" t="str" cm="1">
@@ -13103,7 +13367,7 @@
         <v/>
       </c>
       <c r="C284" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E284" s="7" t="str" cm="1">
@@ -13121,7 +13385,7 @@
         <v/>
       </c>
       <c r="C285" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E285" s="7" t="str" cm="1">
@@ -13139,7 +13403,7 @@
         <v/>
       </c>
       <c r="C286" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E286" s="7" t="str" cm="1">
@@ -13157,7 +13421,7 @@
         <v/>
       </c>
       <c r="C287" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E287" s="7" t="str" cm="1">
@@ -13175,7 +13439,7 @@
         <v/>
       </c>
       <c r="C288" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E288" s="7" t="str" cm="1">
@@ -13193,7 +13457,7 @@
         <v/>
       </c>
       <c r="C289" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E289" s="7" t="str" cm="1">
@@ -13211,7 +13475,7 @@
         <v/>
       </c>
       <c r="C290" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E290" s="7" t="str" cm="1">
@@ -13229,7 +13493,7 @@
         <v/>
       </c>
       <c r="C291" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E291" s="7" t="str" cm="1">
@@ -13247,7 +13511,7 @@
         <v/>
       </c>
       <c r="C292" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E292" s="7" t="str" cm="1">
@@ -13265,7 +13529,7 @@
         <v/>
       </c>
       <c r="C293" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E293" s="7" t="str" cm="1">
@@ -13283,7 +13547,7 @@
         <v/>
       </c>
       <c r="C294" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E294" s="7" t="str" cm="1">
@@ -13301,7 +13565,7 @@
         <v/>
       </c>
       <c r="C295" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E295" s="7" t="str" cm="1">
@@ -13319,7 +13583,7 @@
         <v/>
       </c>
       <c r="C296" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E296" s="7" t="str" cm="1">
@@ -13337,7 +13601,7 @@
         <v/>
       </c>
       <c r="C297" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E297" s="7" t="str" cm="1">
@@ -13355,7 +13619,7 @@
         <v/>
       </c>
       <c r="C298" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E298" s="7" t="str" cm="1">
@@ -13373,7 +13637,7 @@
         <v/>
       </c>
       <c r="C299" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E299" s="7" t="str" cm="1">
@@ -13391,7 +13655,7 @@
         <v/>
       </c>
       <c r="C300" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E300" s="7" t="str" cm="1">
@@ -13479,11 +13743,11 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:M300">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Testing"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"Done"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"In progress"</formula>
@@ -13513,7 +13777,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13545,11 +13809,11 @@
       </c>
       <c r="B2" s="21">
         <f>COUNT('Sprint 1 backlog'!C3:C300)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <f>COUNT('Sprint 1 backlog'!C3:C100)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!G3:G23,"Done")</f>
@@ -13562,11 +13826,11 @@
       </c>
       <c r="B3" s="21">
         <f t="shared" ref="B3:B8" si="0">B2-($B$2/6)</f>
-        <v>15.833333333333334</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="C3" s="1">
         <f>C2-D2</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H23,"Done")</f>
@@ -13579,15 +13843,15 @@
       </c>
       <c r="B4" s="21">
         <f t="shared" si="0"/>
-        <v>12.666666666666668</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C8" si="1">C3-D3</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I23,"Done")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -13596,11 +13860,11 @@
       </c>
       <c r="B5" s="21">
         <f t="shared" si="0"/>
-        <v>9.5000000000000018</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
@@ -13613,11 +13877,11 @@
       </c>
       <c r="B6" s="21">
         <f t="shared" si="0"/>
-        <v>6.3333333333333357</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -13630,11 +13894,11 @@
       </c>
       <c r="B7" s="21">
         <f t="shared" si="0"/>
-        <v>3.1666666666666692</v>
+        <v>3.3333333333333326</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -13651,7 +13915,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -19360,7 +19624,7 @@
       </c>
       <c r="C2" s="1">
         <f>COUNT('Sprint 1 backlog'!C3:C100)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!G3:G23,"Done")</f>
@@ -19377,7 +19641,7 @@
       </c>
       <c r="C3" s="1">
         <f>C2-D2</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <f>COUNTIF('Sprint 1 backlog'!H3:H23,"Done")</f>
@@ -19394,11 +19658,11 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:C8" si="1">C3-D3</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I3:I23,"Done")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -19411,7 +19675,7 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
@@ -19428,7 +19692,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -19445,7 +19709,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -19462,7 +19726,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -20026,14 +20290,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20220,21 +20482,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
-    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20259,9 +20520,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
+    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7119A2-5C66-4210-A5E9-8527CE4C6091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9928C-08E7-42C2-9F2B-49C4FABAAC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
   <si>
     <t>Product backlog ID</t>
   </si>
@@ -552,27 +552,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,19 +564,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -880,7 +880,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1096,13 +1096,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,7 +1747,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1963,13 +1963,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7589,11 +7589,11 @@
       </c>
       <c r="D2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!I$3:I$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J$3:J$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K$3:K$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="E4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J$3:J$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K$3:K$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="E10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
@@ -7787,7 +7787,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7804,797 +7804,825 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="36" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="34"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="22">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="str" cm="1">
+      <c r="B3" s="22" t="str" cm="1">
         <f t="array" ref="B3">IF(ISBLANK(A3),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A3),{0,1}))</f>
         <v>Create an account on the Admin Portal</v>
       </c>
-      <c r="C3" s="29">
-        <f t="shared" ref="C3:C22" si="0">IF(ISBLANK(A3),"",IF(A3&lt;&gt;A2,A3+0.1,C2+0.1))</f>
+      <c r="C3" s="22">
+        <f t="shared" ref="C3:C18" si="0">IF(ISBLANK(A3),"",IF(A3&lt;&gt;A2,A3+0.1,C2+0.1))</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="31" t="str" cm="1">
+      <c r="E3" s="24" t="str" cm="1">
         <f t="array" ref="E3">IF(ISBLANK(A3),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A3),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F3" s="29" cm="1">
+      <c r="F3" s="22" cm="1">
         <f t="array" ref="F3">IF(ISBLANK(A3),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A3),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="29">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="str" cm="1">
+      <c r="B4" s="22" t="str" cm="1">
         <f t="array" ref="B4">IF(ISBLANK(A4),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A4),{0,1}))</f>
         <v>Create an account on the Admin Portal</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="22">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="31" t="str" cm="1">
+      <c r="E4" s="24" t="str" cm="1">
         <f t="array" ref="E4">IF(ISBLANK(A4),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A4),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F4" s="29" cm="1">
+      <c r="F4" s="22" cm="1">
         <f t="array" ref="F4">IF(ISBLANK(A4),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A4),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="29" t="str" cm="1">
+      <c r="B5" s="22" t="str" cm="1">
         <f t="array" ref="B5">IF(ISBLANK(A5),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A5),{0,1}))</f>
         <v>Create an account on the Admin Portal</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="22">
         <f t="shared" si="0"/>
         <v>1.3000000000000003</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="31" t="str" cm="1">
+      <c r="E5" s="24" t="str" cm="1">
         <f t="array" ref="E5">IF(ISBLANK(A5),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A5),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F5" s="29" cm="1">
+      <c r="F5" s="22" cm="1">
         <f t="array" ref="F5">IF(ISBLANK(A5),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A5),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="str" cm="1">
+      <c r="B6" s="22" t="str" cm="1">
         <f t="array" ref="B6">IF(ISBLANK(A6),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A6),{0,1}))</f>
         <v>Log in to the Admin Portal</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="22">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="31" t="str" cm="1">
+      <c r="E6" s="24" t="str" cm="1">
         <f t="array" ref="E6">IF(ISBLANK(A6),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A6),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F6" s="29" cm="1">
+      <c r="F6" s="22" cm="1">
         <f t="array" ref="F6">IF(ISBLANK(A6),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A6),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B7" s="29" t="str" cm="1">
+      <c r="B7" s="22" t="str" cm="1">
         <f t="array" ref="B7">IF(ISBLANK(A7),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A7),{0,1}))</f>
         <v>Log in to the Admin Portal</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="22">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="31" t="str" cm="1">
+      <c r="E7" s="24" t="str" cm="1">
         <f t="array" ref="E7">IF(ISBLANK(A7),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A7),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F7" s="29" cm="1">
+      <c r="F7" s="22" cm="1">
         <f t="array" ref="F7">IF(ISBLANK(A7),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A7),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="str" cm="1">
+      <c r="B8" s="22" t="str" cm="1">
         <f t="array" ref="B8">IF(ISBLANK(A8),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A8),{0,1}))</f>
         <v>Log in to the Admin Portal</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="22">
         <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="31" t="str" cm="1">
+      <c r="E8" s="24" t="str" cm="1">
         <f t="array" ref="E8">IF(ISBLANK(A8),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A8),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F8" s="29" cm="1">
+      <c r="F8" s="22" cm="1">
         <f t="array" ref="F8">IF(ISBLANK(A8),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A8),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="22">
         <v>3</v>
       </c>
-      <c r="B9" s="29" t="str" cm="1">
+      <c r="B9" s="22" t="str" cm="1">
         <f t="array" ref="B9">IF(ISBLANK(A9),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A9),{0,1}))</f>
         <v>Create an article on the Admin Portal</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="22">
         <f t="shared" si="0"/>
         <v>3.1</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="31" t="str" cm="1">
+      <c r="E9" s="24" t="str" cm="1">
         <f t="array" ref="E9">IF(ISBLANK(A9),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A9),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F9" s="29" cm="1">
+      <c r="F9" s="22" cm="1">
         <f t="array" ref="F9">IF(ISBLANK(A9),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A9),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="str" cm="1">
+      <c r="B10" s="22" t="str" cm="1">
         <f t="array" ref="B10">IF(ISBLANK(A10),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A10),{0,1}))</f>
         <v>Create an article on the Admin Portal</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="31" t="str" cm="1">
+      <c r="E10" s="24" t="str" cm="1">
         <f t="array" ref="E10">IF(ISBLANK(A10),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A10),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F10" s="29" cm="1">
+      <c r="F10" s="22" cm="1">
         <f t="array" ref="F10">IF(ISBLANK(A10),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A10),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B11" s="29" t="str" cm="1">
+      <c r="B11" s="22" t="str" cm="1">
         <f t="array" ref="B11">IF(ISBLANK(A11),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A11),{0,1}))</f>
         <v>Create an article on the Admin Portal</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="31" t="str" cm="1">
+      <c r="E11" s="24" t="str" cm="1">
         <f t="array" ref="E11">IF(ISBLANK(A11),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A11),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F11" s="29" cm="1">
+      <c r="F11" s="22" cm="1">
         <f t="array" ref="F11">IF(ISBLANK(A11),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A11),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="H11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="22">
         <v>4</v>
       </c>
-      <c r="B12" s="29" t="str" cm="1">
+      <c r="B12" s="22" t="str" cm="1">
         <f t="array" ref="B12">IF(ISBLANK(A12),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A12),{0,1}))</f>
         <v>View available articles on the Blog on desktop</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="31" t="str" cm="1">
+      <c r="E12" s="24" t="str" cm="1">
         <f t="array" ref="E12">IF(ISBLANK(A12),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A12),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F12" s="29" cm="1">
+      <c r="F12" s="22" cm="1">
         <f t="array" ref="F12">IF(ISBLANK(A12),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A12),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="I12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="22">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="str" cm="1">
+      <c r="B13" s="22" t="str" cm="1">
         <f t="array" ref="B13">IF(ISBLANK(A13),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A13),{0,1}))</f>
         <v>View available articles on the Blog on desktop</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="22">
         <f t="shared" si="0"/>
         <v>4.1999999999999993</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="31" t="str" cm="1">
+      <c r="E13" s="24" t="str" cm="1">
         <f t="array" ref="E13">IF(ISBLANK(A13),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A13),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F13" s="29" cm="1">
+      <c r="F13" s="22" cm="1">
         <f t="array" ref="F13">IF(ISBLANK(A13),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A13),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="I13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
-      <c r="B14" s="29" t="str" cm="1">
+      <c r="B14" s="22" t="str" cm="1">
         <f t="array" ref="B14">IF(ISBLANK(A14),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A14),{0,1}))</f>
         <v>View available articles on the Blog on desktop</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>4.2999999999999989</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="31" t="str" cm="1">
+      <c r="E14" s="24" t="str" cm="1">
         <f t="array" ref="E14">IF(ISBLANK(A14),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A14),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F14" s="29" cm="1">
+      <c r="F14" s="22" cm="1">
         <f t="array" ref="F14">IF(ISBLANK(A14),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A14),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="I14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
-      <c r="B15" s="29" t="str" cm="1">
+      <c r="B15" s="22" t="str" cm="1">
         <f t="array" ref="B15">IF(ISBLANK(A15),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A15),{0,1}))</f>
         <v>Read a single article on the Blog on desktop</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="22">
         <f t="shared" si="0"/>
         <v>5.0999999999999996</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="31" t="str" cm="1">
+      <c r="E15" s="24" t="str" cm="1">
         <f t="array" ref="E15">IF(ISBLANK(A15),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A15),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F15" s="29" cm="1">
+      <c r="F15" s="22" cm="1">
         <f t="array" ref="F15">IF(ISBLANK(A15),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A15),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+      <c r="I15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="29" t="str" cm="1">
+      <c r="B16" s="22" t="str" cm="1">
         <f t="array" ref="B16">IF(ISBLANK(A16),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A16),{0,1}))</f>
         <v>Read a single article on the Blog on desktop</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="22">
         <f t="shared" si="0"/>
         <v>5.1999999999999993</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="31" t="str" cm="1">
+      <c r="E16" s="24" t="str" cm="1">
         <f t="array" ref="E16">IF(ISBLANK(A16),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A16),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F16" s="29" cm="1">
+      <c r="F16" s="22" cm="1">
         <f t="array" ref="F16">IF(ISBLANK(A16),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A16),{0,0,0,0,1}))</f>
         <v>3</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="I16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="22">
         <v>6</v>
       </c>
-      <c r="B17" s="29" t="str" cm="1">
+      <c r="B17" s="22" t="str" cm="1">
         <f t="array" ref="B17">IF(ISBLANK(A17),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A17),{0,1}))</f>
         <v>Update an article on the Admin Portal</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="22">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="31" t="str" cm="1">
+      <c r="E17" s="24" t="str" cm="1">
         <f t="array" ref="E17">IF(ISBLANK(A17),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A17),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F17" s="29" cm="1">
+      <c r="F17" s="22" cm="1">
         <f t="array" ref="F17">IF(ISBLANK(A17),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A17),{0,0,0,0,1}))</f>
         <v>2</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
+      <c r="I17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="22">
         <v>6</v>
       </c>
-      <c r="B18" s="29" t="str" cm="1">
+      <c r="B18" s="22" t="str" cm="1">
         <f t="array" ref="B18">IF(ISBLANK(A18),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A18),{0,1}))</f>
         <v>Update an article on the Admin Portal</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="22">
         <f t="shared" si="0"/>
         <v>6.1999999999999993</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="31" t="str" cm="1">
+      <c r="E18" s="24" t="str" cm="1">
         <f t="array" ref="E18">IF(ISBLANK(A18),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A18),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F18" s="29" cm="1">
+      <c r="F18" s="22" cm="1">
         <f t="array" ref="F18">IF(ISBLANK(A18),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A18),{0,0,0,0,1}))</f>
         <v>2</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
+      <c r="I18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="22">
         <v>8</v>
       </c>
-      <c r="B19" s="29" t="str" cm="1">
+      <c r="B19" s="22" t="str" cm="1">
         <f t="array" ref="B19">IF(ISBLANK(A19),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A19),{0,1}))</f>
         <v>View available articles on the Admin Portal</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="22">
         <f t="shared" ref="C19:C22" si="1">IF(ISBLANK(A19),"",IF(A19&lt;&gt;A18,A19+0.1,C18+0.1))</f>
         <v>8.1</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="31" t="str" cm="1">
+      <c r="E19" s="24" t="str" cm="1">
         <f t="array" ref="E19">IF(ISBLANK(A19),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A19),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F19" s="29" cm="1">
+      <c r="F19" s="22" cm="1">
         <f t="array" ref="F19">IF(ISBLANK(A19),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A19),{0,0,0,0,1}))</f>
         <v>1</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="22">
         <v>8</v>
       </c>
-      <c r="B20" s="29" t="str" cm="1">
+      <c r="B20" s="22" t="str" cm="1">
         <f t="array" ref="B20">IF(ISBLANK(A20),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A20),{0,1}))</f>
         <v>View available articles on the Admin Portal</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="22">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="31" t="str" cm="1">
+      <c r="E20" s="24" t="str" cm="1">
         <f t="array" ref="E20">IF(ISBLANK(A20),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A20),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F20" s="29" cm="1">
+      <c r="F20" s="22" cm="1">
         <f t="array" ref="F20">IF(ISBLANK(A20),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A20),{0,0,0,0,1}))</f>
         <v>1</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="22">
         <v>9</v>
       </c>
-      <c r="B21" s="29" t="str" cm="1">
+      <c r="B21" s="22" t="str" cm="1">
         <f t="array" ref="B21">IF(ISBLANK(A21),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A21),{0,1}))</f>
         <v>View a selected article on the Admin Portal</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="22">
         <f t="shared" si="1"/>
         <v>9.1</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="31" t="str" cm="1">
+      <c r="E21" s="24" t="str" cm="1">
         <f t="array" ref="E21">IF(ISBLANK(A21),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A21),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F21" s="29" cm="1">
+      <c r="F21" s="22" cm="1">
         <f t="array" ref="F21">IF(ISBLANK(A21),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A21),{0,0,0,0,1}))</f>
         <v>1</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="22">
         <v>9</v>
       </c>
-      <c r="B22" s="29" t="str" cm="1">
+      <c r="B22" s="22" t="str" cm="1">
         <f t="array" ref="B22">IF(ISBLANK(A22),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$B$279,'Product backlog'!$A$2:$A$279=A22),{0,1}))</f>
         <v>View a selected article on the Admin Portal</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="22">
         <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="31" t="str" cm="1">
+      <c r="E22" s="24" t="str" cm="1">
         <f t="array" ref="E22">IF(ISBLANK(A22),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A22),{0,0,1}))</f>
         <v>Jake</v>
       </c>
-      <c r="F22" s="29" cm="1">
+      <c r="F22" s="22" cm="1">
         <f t="array" ref="F22">IF(ISBLANK(A22),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$E$279,'Product backlog'!$A$2:$A$279=A22),{0,0,0,0,1}))</f>
         <v>1</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="H22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="str" cm="1">
@@ -13868,7 +13896,7 @@
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -13881,7 +13909,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -13898,7 +13926,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -13915,7 +13943,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -13967,44 +13995,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="22" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
@@ -14026,7 +14054,7 @@
       <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="35"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -19679,7 +19707,7 @@
       </c>
       <c r="D5" s="1">
         <f>COUNTIF('Sprint 1 backlog'!J3:J23,"Done")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -19692,7 +19720,7 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K23,"Done")</f>
@@ -19709,7 +19737,7 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
@@ -19726,7 +19754,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -20290,12 +20318,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20482,20 +20512,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
+    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20520,12 +20551,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
-    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\WebComA3\DesignDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\jake\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE9928C-08E7-42C2-9F2B-49C4FABAAC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB7C5B-96F5-4DAA-9A3C-7C046432553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13950" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="2205" windowWidth="14835" windowHeight="11385" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -20329,6 +20329,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100368EC63562010C468CBEB7AB90BFA937" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbcd4c9f600c040763b05b627a98747d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5517439e-c63d-4269-a460-349c4f0e575b" xmlns:ns3="d12b44e9-a355-4801-8c10-af0fa875eb52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3ca6a824aa0a87c5592ba6780ee9405" ns2:_="" ns3:_="">
     <xsd:import namespace="5517439e-c63d-4269-a460-349c4f0e575b"/>
@@ -20511,15 +20520,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
@@ -20532,6 +20532,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{759CF7A7-ED7B-4C51-82F1-9078416C083C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20548,12 +20556,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\jake\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB7C5B-96F5-4DAA-9A3C-7C046432553A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA6763-F5D3-4DF7-9D4D-B5D189719C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2205" windowWidth="14835" windowHeight="11385" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="76">
   <si>
     <t>Product backlog ID</t>
   </si>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="F2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K$3:K$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L$3:L$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
@@ -7631,11 +7631,11 @@
       </c>
       <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -7731,11 +7731,11 @@
       </c>
       <c r="F10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!K3:K1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="G11" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L1048576,'Sprint 1 stats - DO NOT CHANGE'!$A11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M1048576,'Sprint 1 stats - DO NOT CHANGE'!$A11)</f>
@@ -7785,9 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7795,7 +7794,7 @@
     <col min="1" max="1" width="9.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="60.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="11" style="6" customWidth="1"/>
-    <col min="4" max="4" width="111.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="61.125" style="6" customWidth="1"/>
     <col min="5" max="5" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="10.375" style="6" customWidth="1"/>
@@ -8228,8 +8227,12 @@
       <c r="J12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
     </row>
@@ -8268,8 +8271,12 @@
       <c r="J13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="K13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
     </row>
@@ -8308,7 +8315,9 @@
       <c r="J14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
@@ -8348,8 +8357,12 @@
       <c r="J15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="K15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
     </row>
@@ -8388,7 +8401,9 @@
       <c r="J16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -8468,7 +8483,9 @@
       <c r="J18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>

--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\jake\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EA6763-F5D3-4DF7-9D4D-B5D189719C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0F3818-1402-4D4F-AE58-1E7C57C756DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="76">
   <si>
     <t>Product backlog ID</t>
   </si>
@@ -886,7 +886,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1102,7 +1102,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,7 +1753,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1969,7 +1969,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L$3:L$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M$3:M$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="G4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L$3:L$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M$3:M$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="G10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
@@ -7769,7 +7769,7 @@
       </c>
       <c r="G11" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L1048576,'Sprint 1 stats - DO NOT CHANGE'!$A11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M1048576,'Sprint 1 stats - DO NOT CHANGE'!$A11)</f>
@@ -7786,7 +7786,7 @@
   <dimension ref="A1:N310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8231,7 +8231,7 @@
         <v>26</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
@@ -8318,7 +8318,9 @@
       <c r="K14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="22"/>
+      <c r="L14" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
     </row>
@@ -8361,7 +8363,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -8404,7 +8406,9 @@
       <c r="K16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
     </row>
@@ -8486,7 +8490,9 @@
       <c r="K18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="22"/>
+      <c r="L18" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
     </row>
@@ -13822,7 +13828,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13947,7 +13953,7 @@
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -13960,7 +13966,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -19758,7 +19764,7 @@
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -19771,7 +19777,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>

--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\jake\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0F3818-1402-4D4F-AE58-1E7C57C756DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A24C12-0303-49D9-B08B-115A7C22A036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,13 +293,13 @@
     <t>View an account's profile information on the Admin Portal</t>
   </si>
   <si>
-    <t>Create a view to update the article list on the Admin Portal</t>
-  </si>
-  <si>
     <t>Publish an Article</t>
   </si>
   <si>
     <t>Secure the Admin Portal</t>
+  </si>
+  <si>
+    <t>Create a view to update an article on the Admin Portal</t>
   </si>
 </sst>
 </file>
@@ -4189,7 +4189,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="18" t="str">
         <f t="shared" si="2"/>
@@ -4212,7 +4212,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="18" t="str">
         <f t="shared" si="2"/>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L$3:L$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M$3:M$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="G10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
@@ -7785,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8275,7 +8275,7 @@
         <v>26</v>
       </c>
       <c r="L13" s="22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
@@ -8363,7 +8363,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -8465,7 +8465,7 @@
         <v>6.1999999999999993</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E18" s="24" t="str" cm="1">
         <f t="array" ref="E18">IF(ISBLANK(A18),"",_xlfn._xlws.FILTER(_xlfn._xlws.FILTER('Product backlog'!$A$2:$C$279,'Product backlog'!$A$2:$A$279=A18),{0,0,1}))</f>
@@ -20352,15 +20352,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100368EC63562010C468CBEB7AB90BFA937" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbcd4c9f600c040763b05b627a98747d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5517439e-c63d-4269-a460-349c4f0e575b" xmlns:ns3="d12b44e9-a355-4801-8c10-af0fa875eb52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3ca6a824aa0a87c5592ba6780ee9405" ns2:_="" ns3:_="">
     <xsd:import namespace="5517439e-c63d-4269-a460-349c4f0e575b"/>
@@ -20543,6 +20534,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
@@ -20555,14 +20555,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{759CF7A7-ED7B-4C51-82F1-9078416C083C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20579,4 +20571,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\jake\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A24C12-0303-49D9-B08B-115A7C22A036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7448C6-F58D-4EA0-9731-728F34508165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -886,7 +886,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1102,7 +1102,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,7 +1753,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1969,7 +1969,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,9 +3842,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3979,7 +3979,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>49</v>
@@ -4004,7 +4004,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>50</v>
@@ -4029,7 +4029,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>51</v>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>48</v>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="G2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L$3:L$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M$3:M$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A2)</f>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="G4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L$3:L$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M$3:M$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="G10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M1048576,'Sprint 1 stats - DO NOT CHANGE'!$A10)</f>
@@ -7785,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8319,7 +8319,7 @@
         <v>26</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
@@ -8363,7 +8363,7 @@
         <v>26</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -8407,7 +8407,7 @@
         <v>26</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -19764,7 +19764,7 @@
       </c>
       <c r="D7" s="1">
         <f>COUNTIF('Sprint 1 backlog'!L3:L23,"Done")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -19777,7 +19777,7 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
@@ -20352,6 +20352,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100368EC63562010C468CBEB7AB90BFA937" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbcd4c9f600c040763b05b627a98747d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5517439e-c63d-4269-a460-349c4f0e575b" xmlns:ns3="d12b44e9-a355-4801-8c10-af0fa875eb52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3ca6a824aa0a87c5592ba6780ee9405" ns2:_="" ns3:_="">
     <xsd:import namespace="5517439e-c63d-4269-a460-349c4f0e575b"/>
@@ -20534,15 +20543,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
@@ -20555,6 +20555,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{759CF7A7-ED7B-4C51-82F1-9078416C083C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20571,12 +20579,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\jake\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7448C6-F58D-4EA0-9731-728F34508165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A36F7A-6072-44D6-A349-52D4D3257C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="76">
   <si>
     <t>Product backlog ID</t>
   </si>
@@ -889,7 +889,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,7 +1756,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3842,7 +3842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -7673,7 +7673,7 @@
       </c>
       <c r="H4" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M$3:M$1048576,'Sprint 1 stats - DO NOT CHANGE'!$A4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -7785,8 +7785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="A18:L18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8493,7 +8493,9 @@
       <c r="L18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="22"/>
+      <c r="M18" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -13970,7 +13972,7 @@
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -19781,7 +19783,7 @@
       </c>
       <c r="D8" s="1">
         <f>COUNTIF('Sprint 1 backlog'!M3:M23,"Done")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">

--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\jake\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A36F7A-6072-44D6-A349-52D4D3257C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF6737-2082-4A31-85B6-3637A9D269CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15045" yWindow="1980" windowWidth="14835" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product backlog" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="77">
   <si>
     <t>Product backlog ID</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>Create a view to update an article on the Admin Portal</t>
+  </si>
+  <si>
+    <t>Banner image for Article</t>
   </si>
 </sst>
 </file>
@@ -3842,9 +3845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4230,18 +4233,26 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="str">
+      <c r="A16" s="6">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B16" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="C16" s="18" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+        <v>Jake</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -7785,7 +7796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -20354,15 +20365,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100368EC63562010C468CBEB7AB90BFA937" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbcd4c9f600c040763b05b627a98747d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5517439e-c63d-4269-a460-349c4f0e575b" xmlns:ns3="d12b44e9-a355-4801-8c10-af0fa875eb52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3ca6a824aa0a87c5592ba6780ee9405" ns2:_="" ns3:_="">
     <xsd:import namespace="5517439e-c63d-4269-a460-349c4f0e575b"/>
@@ -20545,6 +20547,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
@@ -20557,14 +20568,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{759CF7A7-ED7B-4C51-82F1-9078416C083C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20581,4 +20584,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DesignDocs/Burndown.xlsx
+++ b/DesignDocs/Burndown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\jake\WebComA3\DesignDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\Code\WebComA3\DesignDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF6737-2082-4A31-85B6-3637A9D269CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3D7EA8-8049-42A3-AA00-11E97A95A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15045" yWindow="1980" windowWidth="14835" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,7 +302,7 @@
     <t>Create a view to update an article on the Admin Portal</t>
   </si>
   <si>
-    <t>Banner image for Article</t>
+    <t>Banner image for articles</t>
   </si>
 </sst>
 </file>
@@ -20354,14 +20354,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20548,21 +20546,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d12b44e9-a355-4801-8c10-af0fa875eb52" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5517439e-c63d-4269-a460-349c4f0e575b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
-    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20587,9 +20584,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A822F-48A0-46FD-9A7C-C24C615E1364}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A769E7B-2011-4CCB-A1CB-4C5F3F198FFB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d12b44e9-a355-4801-8c10-af0fa875eb52"/>
+    <ds:schemaRef ds:uri="5517439e-c63d-4269-a460-349c4f0e575b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>